--- a/basic/data/OccupationalCrosswalk1985-2005V02.xlsx
+++ b/basic/data/OccupationalCrosswalk1985-2005V02.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5554" uniqueCount="2563">
   <si>
     <t>cat03_code</t>
   </si>
@@ -7010,10 +7010,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TRANSPORT AND COMMUNICATION CLERIAL WORKERS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OFFICE APPLIANCE OPERATORS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7466,10 +7462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Management public servants</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Administrators, managers NEC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8391,6 +8383,242 @@
   </si>
   <si>
     <t>Comp proc technicians</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MidTitleLabel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public officials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRANSPORT AND COMMUNICATION CLERICAL WORKERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scientists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Engineers and technicians</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Healthcare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Social</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Legal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Managers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teachers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Religious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Writers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entertainment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Managing directors and exectutives</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other managers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remote service workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transport and communications clerical workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office equipment operators</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merchandise sales workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Agents, brokers, related</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Domestic support workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Personal hygience workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Food and beverage preparation workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Personal service workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facilities superindendents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other service workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Protective service workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Agriculture workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forestry workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Railway driverss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moter vehicle drivers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ship and aircraft operators</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other transport workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metal crafts workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chemical products makers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Refractories workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metal fabricators</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>General mechanical apparatus assemblers and repairers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electromechanical apparatus assemblers and repairers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transport machinery assemblers and repairers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Precision instrument assemblers and repairers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Food manufacturers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beverage and tobacco makers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spinners and weavers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Garment and fabric product makers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wooden handicraft workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pulp and papermaking workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Printing and bookbinding workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rubber and plastic products makers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leather workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other crafts workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stationary plant and machinery operators</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electrical trade workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mine workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Construction workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transport laborers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other laborers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tutors, athletes and NEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Artists, designers, photographers</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8841,10 +9069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V307"/>
+  <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="M40" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8856,18 +9084,18 @@
     <col min="7" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="43.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="13" max="14" width="60.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="43.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="26.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2135</v>
@@ -8903,15 +9131,18 @@
         <v>2138</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>2139</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="8" customFormat="1">
+      <c r="P1" s="2" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="8" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B2" s="8">
         <v>10</v>
@@ -8956,15 +9187,18 @@
         <v>2141</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>1546</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="P2" s="8" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B3" s="8">
         <v>10</v>
@@ -9002,16 +9236,16 @@
       <c r="K3" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="P3" s="2" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B4" s="8">
         <v>10</v>
@@ -9054,17 +9288,20 @@
         <v>2142</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>2508</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>2504</v>
-      </c>
-      <c r="P4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>2502</v>
+      </c>
       <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" s="9" customFormat="1">
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" s="9" customFormat="1">
       <c r="A5" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B5" s="8">
         <v>10</v>
@@ -9104,23 +9341,24 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>2223</v>
-      </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>2222</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B6" s="8">
         <v>10</v>
@@ -9154,16 +9392,16 @@
       <c r="K6" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="P6" s="2" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B7" s="8">
         <v>10</v>
@@ -9201,16 +9439,16 @@
       <c r="K7" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="P7" s="2" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B8" s="8">
         <v>10</v>
@@ -9245,16 +9483,16 @@
         <f>CONCATENATE(J$1,"00",LEFT('2005'!B7))</f>
         <v>2005006</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="P8" s="2" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B9" s="8">
         <v>10</v>
@@ -9292,16 +9530,16 @@
       <c r="K9" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="P9" s="2" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B10" s="8">
         <v>10</v>
@@ -9339,16 +9577,16 @@
       <c r="K10" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>1565</v>
-      </c>
       <c r="O10" s="2" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="P10" s="2" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B11" s="8">
         <v>10</v>
@@ -9386,16 +9624,16 @@
       <c r="K11" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="P11" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B12" s="8">
         <v>10</v>
@@ -9433,16 +9671,16 @@
       <c r="K12" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="P12" s="2" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B13" s="8">
         <v>10</v>
@@ -9476,16 +9714,16 @@
       <c r="K13" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="6" customFormat="1">
+      <c r="P13" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="6" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B14" s="8">
         <v>10</v>
@@ -9523,16 +9761,16 @@
       <c r="K14" s="6" t="s">
         <v>1572</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>1571</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="9" customFormat="1">
+      <c r="P14" s="6" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B15" s="8">
         <v>10</v>
@@ -9574,15 +9812,18 @@
         <v>2143</v>
       </c>
       <c r="N15" s="9" t="s">
+        <v>2509</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="P15" s="9" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B16" s="8">
         <v>10</v>
@@ -9620,16 +9861,16 @@
       <c r="K16" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="2" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B17" s="8">
         <v>10</v>
@@ -9667,16 +9908,16 @@
       <c r="K17" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="2" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B18" s="8">
         <v>10</v>
@@ -9714,16 +9955,16 @@
       <c r="K18" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="2" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B19" s="8">
         <v>10</v>
@@ -9761,16 +10002,16 @@
       <c r="K19" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="2" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B20" s="8">
         <v>10</v>
@@ -9808,16 +10049,16 @@
       <c r="K20" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="2" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B21" s="8">
         <v>10</v>
@@ -9855,16 +10096,16 @@
       <c r="K21" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B22" s="8">
         <v>10</v>
@@ -9902,16 +10143,16 @@
       <c r="K22" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="2" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B23" s="8">
         <v>10</v>
@@ -9949,16 +10190,16 @@
       <c r="K23" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="2" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B24" s="8">
         <v>10</v>
@@ -9996,16 +10237,16 @@
       <c r="K24" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="2" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B25" s="8">
         <v>10</v>
@@ -10043,16 +10284,16 @@
       <c r="K25" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="2" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B26" s="8">
         <v>10</v>
@@ -10090,16 +10331,16 @@
       <c r="K26" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B27" s="8">
         <v>10</v>
@@ -10137,16 +10378,16 @@
       <c r="K27" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="6" customFormat="1">
+      <c r="P27" s="2" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="6" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B28" s="8">
         <v>10</v>
@@ -10184,16 +10425,16 @@
       <c r="K28" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="9" customFormat="1">
+      <c r="P28" s="6" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="9" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B29" s="8">
         <v>10</v>
@@ -10235,15 +10476,18 @@
         <v>2144</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>1606</v>
+        <v>2510</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="6" customFormat="1">
+      <c r="P29" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="6" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B30" s="8">
         <v>10</v>
@@ -10281,16 +10525,16 @@
       <c r="K30" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>1607</v>
       </c>
-      <c r="O30" s="6" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="9" customFormat="1">
+      <c r="P30" s="6" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="9" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B31" s="8">
         <v>10</v>
@@ -10332,15 +10576,18 @@
         <v>2145</v>
       </c>
       <c r="N31" s="9" t="s">
+        <v>2511</v>
+      </c>
+      <c r="O31" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="O31" s="9" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="9" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B32" s="8">
         <v>10</v>
@@ -10375,16 +10622,16 @@
       <c r="K32" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="6" customFormat="1">
+      <c r="P32" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="6" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B33" s="8">
         <v>10</v>
@@ -10422,16 +10669,16 @@
       <c r="K33" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="9" customFormat="1">
+      <c r="P33" s="6" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="9" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B34" s="8">
         <v>10</v>
@@ -10473,15 +10720,18 @@
         <v>2146</v>
       </c>
       <c r="N34" s="9" t="s">
+        <v>2512</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="O34" s="9" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="9" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B35" s="8">
         <v>10</v>
@@ -10516,16 +10766,16 @@
       <c r="K35" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="6" customFormat="1">
+      <c r="P35" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="6" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B36" s="8">
         <v>10</v>
@@ -10560,16 +10810,16 @@
       <c r="K36" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="O36" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="O36" s="6" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="9" customFormat="1">
+      <c r="P36" s="6" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="9" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B37" s="8">
         <v>10</v>
@@ -10611,15 +10861,18 @@
         <v>2147</v>
       </c>
       <c r="N37" s="9" t="s">
+        <v>2513</v>
+      </c>
+      <c r="O37" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="O37" s="9" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="9" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B38" s="8">
         <v>10</v>
@@ -10657,16 +10910,16 @@
       <c r="K38" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="2" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B39" s="8">
         <v>10</v>
@@ -10704,16 +10957,16 @@
       <c r="K39" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="2" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B40" s="8">
         <v>10</v>
@@ -10751,16 +11004,16 @@
       <c r="K40" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="2" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B41" s="8">
         <v>10</v>
@@ -10798,16 +11051,16 @@
       <c r="K41" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="2" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B42" s="8">
         <v>10</v>
@@ -10845,16 +11098,16 @@
       <c r="K42" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="6" customFormat="1">
+      <c r="P42" s="2" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="6" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B43" s="8">
         <v>10</v>
@@ -10892,16 +11145,16 @@
       <c r="K43" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="O43" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="O43" s="6" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="9" customFormat="1">
+      <c r="P43" s="6" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="9" customFormat="1">
       <c r="A44" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B44" s="8">
         <v>10</v>
@@ -10943,15 +11196,18 @@
         <v>2148</v>
       </c>
       <c r="N44" s="9" t="s">
+        <v>2514</v>
+      </c>
+      <c r="O44" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="O44" s="9" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="9" customFormat="1">
+      <c r="P44" s="9" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="9" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B45" s="8">
         <v>10</v>
@@ -10993,15 +11249,18 @@
         <v>2149</v>
       </c>
       <c r="N45" s="9" t="s">
+        <v>2515</v>
+      </c>
+      <c r="O45" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="O45" s="9" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45" s="9" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B46" s="8">
         <v>10</v>
@@ -11039,16 +11298,16 @@
       <c r="K46" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="9" customFormat="1">
+      <c r="P46" s="2" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="9" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B47" s="8">
         <v>10</v>
@@ -11090,15 +11349,18 @@
         <v>2150</v>
       </c>
       <c r="N47" s="9" t="s">
+        <v>2562</v>
+      </c>
+      <c r="O47" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="O47" s="9" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47" s="9" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B48" s="8">
         <v>10</v>
@@ -11136,16 +11398,16 @@
       <c r="K48" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="O48" s="9" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48" s="9" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B49" s="8">
         <v>10</v>
@@ -11183,16 +11445,16 @@
       <c r="K49" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="O49" s="9" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="9" customFormat="1">
+      <c r="P49" s="9" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="9" customFormat="1">
       <c r="A50" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B50" s="8">
         <v>10</v>
@@ -11234,15 +11496,18 @@
         <v>2151</v>
       </c>
       <c r="N50" s="9" t="s">
+        <v>2516</v>
+      </c>
+      <c r="O50" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="O50" s="9" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50" s="9" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B51" s="8">
         <v>10</v>
@@ -11280,16 +11545,16 @@
       <c r="K51" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51" s="2" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B52" s="8">
         <v>10</v>
@@ -11327,16 +11592,16 @@
       <c r="K52" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="O52" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="O52" s="2" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52" s="2" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B53" s="8">
         <v>10</v>
@@ -11374,16 +11639,16 @@
       <c r="K53" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="O53" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="O53" s="2" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="9" customFormat="1">
+      <c r="P53" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="9" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B54" s="8">
         <v>10</v>
@@ -11425,15 +11690,18 @@
         <v>2152</v>
       </c>
       <c r="N54" s="9" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O54" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="O54" s="9" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54" s="9" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B55" s="8">
         <v>10</v>
@@ -11471,16 +11739,16 @@
       <c r="K55" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="O55" s="2" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55" s="2" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B56" s="8">
         <v>10</v>
@@ -11518,16 +11786,16 @@
       <c r="K56" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="O56" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="O56" s="2" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56" s="2" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B57" s="8">
         <v>10</v>
@@ -11565,16 +11833,16 @@
       <c r="K57" s="2" t="s">
         <v>1677</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="O57" s="2" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="6" customFormat="1">
+      <c r="P57" s="2" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="6" customFormat="1">
       <c r="A58" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B58" s="8">
         <v>10</v>
@@ -11612,16 +11880,16 @@
       <c r="K58" s="6" t="s">
         <v>1676</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="O58" s="6" t="s">
         <v>1676</v>
       </c>
-      <c r="O58" s="6" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="8" customFormat="1">
+      <c r="P58" s="6" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="8" customFormat="1">
       <c r="A59" s="8" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B59" s="8">
         <v>10</v>
@@ -11666,15 +11934,18 @@
         <v>2154</v>
       </c>
       <c r="N59" s="8" t="s">
+        <v>2505</v>
+      </c>
+      <c r="O59" s="8" t="s">
         <v>1684</v>
       </c>
-      <c r="O59" s="8" t="s">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="9" customFormat="1">
+      <c r="P59" s="8" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="9" customFormat="1">
       <c r="A60" s="8" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B60" s="8">
         <v>10</v>
@@ -11716,15 +11987,18 @@
         <v>2155</v>
       </c>
       <c r="N60" s="9" t="s">
+        <v>2517</v>
+      </c>
+      <c r="O60" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="O60" s="9" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60" s="9" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="8" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B61" s="8">
         <v>10</v>
@@ -11762,16 +12036,16 @@
       <c r="K61" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="O61" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="O61" s="2" t="s">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="9" customFormat="1">
+      <c r="P61" s="2" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="9" customFormat="1">
       <c r="A62" s="8" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B62" s="8">
         <v>10</v>
@@ -11813,15 +12087,18 @@
         <v>2156</v>
       </c>
       <c r="N62" s="9" t="s">
+        <v>2518</v>
+      </c>
+      <c r="O62" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="O62" s="9" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62" s="9" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="8" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B63" s="8">
         <v>10</v>
@@ -11855,13 +12132,13 @@
       <c r="K63" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="8" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B64" s="8">
         <v>10</v>
@@ -11895,13 +12172,13 @@
       <c r="K64" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="O64" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="6" customFormat="1">
+      <c r="P64" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="6" customFormat="1">
       <c r="A65" s="8" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B65" s="8">
         <v>10</v>
@@ -11939,16 +12216,16 @@
       <c r="K65" s="6" t="s">
         <v>1689</v>
       </c>
-      <c r="N65" s="6" t="s">
+      <c r="O65" s="6" t="s">
         <v>1690</v>
       </c>
-      <c r="O65" s="6" t="s">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" s="8" customFormat="1">
+      <c r="P65" s="6" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="8" customFormat="1">
       <c r="A66" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B66" s="8">
         <v>10</v>
@@ -11996,12 +12273,15 @@
         <v>1703</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>1703</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B67" s="8">
         <v>10</v>
@@ -12039,16 +12319,16 @@
       <c r="K67" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="O67" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="O67" s="2" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="9" customFormat="1">
+      <c r="P67" s="2" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="9" customFormat="1">
       <c r="A68" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B68" s="8">
         <v>10</v>
@@ -12090,15 +12370,18 @@
         <v>2159</v>
       </c>
       <c r="N68" s="9" t="s">
+        <v>2519</v>
+      </c>
+      <c r="O68" s="9" t="s">
         <v>1705</v>
       </c>
-      <c r="O68" s="9" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" s="6" customFormat="1">
+      <c r="P68" s="9" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="6" customFormat="1">
       <c r="A69" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B69" s="8">
         <v>10</v>
@@ -12136,16 +12419,16 @@
       <c r="K69" s="6" t="s">
         <v>1706</v>
       </c>
-      <c r="N69" s="6" t="s">
+      <c r="O69" s="6" t="s">
         <v>1706</v>
       </c>
-      <c r="O69" s="6" t="s">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="9" customFormat="1">
+      <c r="P69" s="6" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="9" customFormat="1">
       <c r="A70" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B70" s="8">
         <v>10</v>
@@ -12184,18 +12467,21 @@
         <v>1707</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>2160</v>
+        <v>2506</v>
       </c>
       <c r="N70" s="9" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O70" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="O70" s="9" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70" s="9" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B71" s="8">
         <v>10</v>
@@ -12233,16 +12519,16 @@
       <c r="K71" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="O71" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" s="9" customFormat="1">
+      <c r="P71" s="2" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="9" customFormat="1">
       <c r="A72" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B72" s="8">
         <v>10</v>
@@ -12281,18 +12567,21 @@
         <v>1709</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="N72" s="9" t="s">
+        <v>2521</v>
+      </c>
+      <c r="O72" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="O72" s="9" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="P72" s="9" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B73" s="8">
         <v>10</v>
@@ -12330,16 +12619,16 @@
       <c r="K73" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="O73" s="2" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73" s="2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B74" s="8">
         <v>10</v>
@@ -12377,16 +12666,16 @@
       <c r="K74" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="O74" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="O74" s="2" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" s="8" customFormat="1">
+      <c r="P74" s="2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="8" customFormat="1">
       <c r="A75" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B75" s="8">
         <v>10</v>
@@ -12425,21 +12714,24 @@
         <v>1718</v>
       </c>
       <c r="L75" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M75" s="8" t="s">
         <v>2162</v>
       </c>
-      <c r="M75" s="8" t="s">
-        <v>2163</v>
-      </c>
       <c r="N75" s="8" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O75" s="8" t="s">
         <v>1718</v>
       </c>
-      <c r="O75" s="8" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75" s="8" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B76" s="8">
         <v>10</v>
@@ -12477,16 +12769,16 @@
       <c r="K76" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="O76" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="O76" s="2" t="s">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76" s="2" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B77" s="8">
         <v>10</v>
@@ -12524,16 +12816,16 @@
       <c r="K77" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>2287</v>
-      </c>
       <c r="O77" s="2" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>2285</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B78" s="8">
         <v>10</v>
@@ -12571,16 +12863,16 @@
       <c r="K78" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="O78" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="O78" s="2" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="P78" s="2" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B79" s="8">
         <v>10</v>
@@ -12618,16 +12910,16 @@
       <c r="K79" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="O79" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="O79" s="2" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B80" s="8">
         <v>10</v>
@@ -12665,16 +12957,16 @@
       <c r="K80" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="O80" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="P80" s="2" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B81" s="8">
         <v>10</v>
@@ -12712,16 +13004,16 @@
       <c r="K81" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="O81" s="2" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81" s="2" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B82" s="8">
         <v>10</v>
@@ -12759,16 +13051,16 @@
       <c r="K82" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="O82" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="O82" s="2" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" s="9" customFormat="1">
+      <c r="P82" s="2" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="9" customFormat="1">
       <c r="A83" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B83" s="8">
         <v>10</v>
@@ -12807,18 +13099,21 @@
         <v>1734</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="N83" s="9" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O83" s="9" t="s">
         <v>1734</v>
       </c>
-      <c r="O83" s="9" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83" s="9" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B84" s="8">
         <v>10</v>
@@ -12856,16 +13151,16 @@
       <c r="K84" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="O84" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="O84" s="2" t="s">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84" s="2" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B85" s="8">
         <v>10</v>
@@ -12899,16 +13194,16 @@
       <c r="J85" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="O85" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="O85" s="2" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85" s="2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B86" s="8">
         <v>10</v>
@@ -12946,16 +13241,16 @@
       <c r="K86" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="O86" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="O86" s="2" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" s="6" customFormat="1">
+      <c r="P86" s="2" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="6" customFormat="1">
       <c r="A87" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B87" s="8">
         <v>10</v>
@@ -12993,16 +13288,16 @@
       <c r="K87" s="6" t="s">
         <v>1738</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="O87" s="6" t="s">
         <v>1738</v>
       </c>
-      <c r="O87" s="6" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="8" customFormat="1">
+      <c r="P87" s="6" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="8" customFormat="1">
       <c r="A88" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B88" s="8">
         <v>10</v>
@@ -13041,21 +13336,24 @@
         <v>1739</v>
       </c>
       <c r="L88" s="8" t="s">
+        <v>2164</v>
+      </c>
+      <c r="M88" s="8" t="s">
         <v>2165</v>
       </c>
-      <c r="M88" s="8" t="s">
-        <v>2166</v>
-      </c>
       <c r="N88" s="8" t="s">
+        <v>2524</v>
+      </c>
+      <c r="O88" s="8" t="s">
         <v>1739</v>
       </c>
-      <c r="O88" s="8" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88" s="8" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B89" s="8">
         <v>10</v>
@@ -13093,16 +13391,16 @@
       <c r="K89" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="O89" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="O89" s="2" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" s="6" customFormat="1">
+      <c r="P89" s="2" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="6" customFormat="1">
       <c r="A90" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B90" s="8">
         <v>10</v>
@@ -13140,16 +13438,16 @@
       <c r="K90" s="6" t="s">
         <v>1743</v>
       </c>
-      <c r="N90" s="6" t="s">
+      <c r="O90" s="6" t="s">
         <v>1743</v>
       </c>
-      <c r="O90" s="6" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" s="9" customFormat="1">
+      <c r="P90" s="6" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="9" customFormat="1">
       <c r="A91" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B91" s="8">
         <v>10</v>
@@ -13188,18 +13486,21 @@
         <v>1750</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="N91" s="9" t="s">
+        <v>2525</v>
+      </c>
+      <c r="O91" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="O91" s="9" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91" s="9" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B92" s="8">
         <v>10</v>
@@ -13237,16 +13538,16 @@
       <c r="K92" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="N92" s="2" t="s">
+      <c r="O92" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="O92" s="2" t="s">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92" s="2" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B93" s="8">
         <v>10</v>
@@ -13284,16 +13585,16 @@
       <c r="K93" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="O93" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="O93" s="2" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93" s="2" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B94" s="8">
         <v>10</v>
@@ -13331,16 +13632,16 @@
       <c r="K94" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="O94" s="2" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" s="9" customFormat="1">
+      <c r="P94" s="2" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="9" customFormat="1">
       <c r="A95" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B95" s="8">
         <v>10</v>
@@ -13379,18 +13680,21 @@
         <v>1754</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="N95" s="9" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O95" s="9" t="s">
         <v>1754</v>
       </c>
-      <c r="O95" s="9" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95" s="9" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B96" s="8">
         <v>10</v>
@@ -13428,16 +13732,16 @@
       <c r="K96" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="O96" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="O96" s="2" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" s="9" customFormat="1">
+      <c r="P96" s="2" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="9" customFormat="1">
       <c r="A97" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B97" s="8">
         <v>10</v>
@@ -13476,18 +13780,21 @@
         <v>1763</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="N97" s="9" t="s">
+        <v>2527</v>
+      </c>
+      <c r="O97" s="9" t="s">
         <v>1763</v>
       </c>
-      <c r="O97" s="9" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97" s="9" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B98" s="8">
         <v>10</v>
@@ -13525,16 +13832,16 @@
       <c r="K98" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="O98" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="O98" s="2" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B99" s="8">
         <v>10</v>
@@ -13572,16 +13879,16 @@
       <c r="K99" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="O99" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="O99" s="2" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B100" s="8">
         <v>10</v>
@@ -13619,16 +13926,16 @@
       <c r="K100" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="N100" s="2" t="s">
+      <c r="O100" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="O100" s="2" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100" s="2" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B101" s="8">
         <v>10</v>
@@ -13659,16 +13966,16 @@
       <c r="J101" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="N101" s="2" t="s">
-        <v>2211</v>
-      </c>
       <c r="O101" s="2" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>2210</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B102" s="8">
         <v>10</v>
@@ -13706,16 +14013,16 @@
       <c r="K102" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="O102" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="O102" s="2" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" s="9" customFormat="1">
+      <c r="P102" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="9" customFormat="1">
       <c r="A103" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B103" s="8">
         <v>10</v>
@@ -13754,18 +14061,21 @@
         <v>1770</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="N103" s="9" t="s">
+        <v>2528</v>
+      </c>
+      <c r="O103" s="9" t="s">
         <v>1770</v>
       </c>
-      <c r="O103" s="9" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103" s="9" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B104" s="8">
         <v>10</v>
@@ -13802,16 +14112,16 @@
       <c r="K104" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="O104" s="2" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104" s="2" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B105" s="8">
         <v>10</v>
@@ -13848,16 +14158,16 @@
       <c r="K105" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="N105" s="2" t="s">
+      <c r="O105" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="O105" s="2" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" s="9" customFormat="1">
+      <c r="P105" s="2" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="9" customFormat="1">
       <c r="A106" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B106" s="8">
         <v>10</v>
@@ -13895,18 +14205,21 @@
         <v>1775</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="N106" s="9" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O106" s="9" t="s">
         <v>1775</v>
       </c>
-      <c r="O106" s="9" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106" s="9" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B107" s="8">
         <v>10</v>
@@ -13944,16 +14257,16 @@
       <c r="K107" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="N107" s="2" t="s">
+      <c r="O107" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="O107" s="2" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="P107" s="2" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B108" s="8">
         <v>10</v>
@@ -13985,16 +14298,16 @@
         <f>CONCATENATE(J$1,LEFT('2005'!B103,3))</f>
         <v>2005102</v>
       </c>
-      <c r="N108" s="2" t="s">
-        <v>2321</v>
-      </c>
       <c r="O108" s="2" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>2319</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B109" s="8">
         <v>10</v>
@@ -14032,16 +14345,16 @@
       <c r="K109" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="O109" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="O109" s="2" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="P109" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B110" s="8">
         <v>10</v>
@@ -14076,16 +14389,16 @@
       <c r="K110" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="O110" s="2" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="P110" s="2" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B111" s="8">
         <v>10</v>
@@ -14120,16 +14433,16 @@
       <c r="K111" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="O111" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="O111" s="2" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111" s="2" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="8" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B112" s="8">
         <v>10</v>
@@ -14167,16 +14480,16 @@
       <c r="K112" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="O112" s="2" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" s="8" customFormat="1">
+      <c r="P112" s="2" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="8" customFormat="1">
       <c r="A113" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B113" s="8">
         <v>10</v>
@@ -14215,21 +14528,24 @@
         <v>1786</v>
       </c>
       <c r="L113" s="8" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M113" s="8" t="s">
         <v>2172</v>
       </c>
-      <c r="M113" s="8" t="s">
-        <v>2173</v>
-      </c>
       <c r="N113" s="8" t="s">
+        <v>2530</v>
+      </c>
+      <c r="O113" s="8" t="s">
         <v>1786</v>
       </c>
-      <c r="O113" s="8" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113" s="8" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B114" s="8">
         <v>10</v>
@@ -14267,16 +14583,16 @@
       <c r="K114" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="O114" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="O114" s="2" t="s">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114" s="2" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B115" s="8">
         <v>10</v>
@@ -14314,16 +14630,16 @@
       <c r="K115" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="N115" s="2" t="s">
+      <c r="O115" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="O115" s="2" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115" s="2" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B116" s="8">
         <v>10</v>
@@ -14361,16 +14677,16 @@
       <c r="K116" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="O116" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="O116" s="2" t="s">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="P116" s="2" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B117" s="8">
         <v>10</v>
@@ -14404,13 +14720,13 @@
         <f>CONCATENATE(J$1,LEFT('2005'!B112,3))</f>
         <v>2005111</v>
       </c>
-      <c r="O117" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="P117" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B118" s="8">
         <v>10</v>
@@ -14448,16 +14764,16 @@
       <c r="K118" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="N118" s="2" t="s">
-        <v>2330</v>
-      </c>
       <c r="O118" s="2" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" s="8" customFormat="1">
+        <v>2328</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" s="8" customFormat="1">
       <c r="A119" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B119" s="8">
         <v>10</v>
@@ -14496,21 +14812,24 @@
         <v>1796</v>
       </c>
       <c r="L119" s="8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="M119" s="8" t="s">
         <v>2174</v>
       </c>
-      <c r="M119" s="8" t="s">
-        <v>2175</v>
-      </c>
       <c r="N119" s="8" t="s">
+        <v>2531</v>
+      </c>
+      <c r="O119" s="8" t="s">
         <v>1796</v>
       </c>
-      <c r="O119" s="8" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119" s="8" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B120" s="8">
         <v>10</v>
@@ -14548,16 +14867,16 @@
       <c r="K120" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="N120" s="2" t="s">
+      <c r="O120" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="O120" s="2" t="s">
-        <v>2333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="P120" s="2" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B121" s="8">
         <v>10</v>
@@ -14595,16 +14914,16 @@
       <c r="K121" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="N121" s="2" t="s">
+      <c r="O121" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="O121" s="2" t="s">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="P121" s="2" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B122" s="8">
         <v>10</v>
@@ -14642,16 +14961,16 @@
       <c r="K122" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="O122" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="O122" s="2" t="s">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" s="9" customFormat="1">
+      <c r="P122" s="2" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" s="9" customFormat="1">
       <c r="A123" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B123" s="8">
         <v>10</v>
@@ -14690,18 +15009,21 @@
         <v>1806</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N123" s="9" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O123" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="O123" s="9" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123" s="9" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B124" s="8">
         <v>10</v>
@@ -14735,13 +15057,13 @@
       <c r="J124" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O124" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B125" s="8">
         <v>10</v>
@@ -14779,16 +15101,16 @@
       <c r="K125" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="N125" s="2" t="s">
+      <c r="O125" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="O125" s="2" t="s">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125" s="2" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B126" s="8">
         <v>10</v>
@@ -14822,13 +15144,13 @@
       <c r="J126" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O126" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="P126" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B127" s="8">
         <v>10</v>
@@ -14866,16 +15188,16 @@
       <c r="K127" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="N127" s="2" t="s">
+      <c r="O127" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="O127" s="2" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" s="9" customFormat="1">
+      <c r="P127" s="2" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="9" customFormat="1">
       <c r="A128" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B128" s="8">
         <v>10</v>
@@ -14914,18 +15236,21 @@
         <v>1815</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="N128" s="9" t="s">
         <v>1815</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>1815</v>
+      </c>
+      <c r="P128" s="9" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B129" s="8">
         <v>10</v>
@@ -14963,16 +15288,16 @@
       <c r="K129" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="N129" s="2" t="s">
+      <c r="O129" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="O129" s="2" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="P129" s="2" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B130" s="8">
         <v>10</v>
@@ -15010,16 +15335,16 @@
       <c r="K130" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="N130" s="2" t="s">
+      <c r="O130" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="O130" s="2" t="s">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130" s="2" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B131" s="8">
         <v>10</v>
@@ -15057,16 +15382,16 @@
       <c r="K131" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="O131" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="O131" s="2" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="P131" s="2" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B132" s="8">
         <v>10</v>
@@ -15104,16 +15429,16 @@
       <c r="K132" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="N132" s="2" t="s">
+      <c r="O132" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="O132" s="2" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" s="8" customFormat="1">
+      <c r="P132" s="2" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" s="8" customFormat="1">
       <c r="A133" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B133" s="8">
         <v>10</v>
@@ -15152,21 +15477,24 @@
         <v>1823</v>
       </c>
       <c r="L133" s="8" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M133" s="8" t="s">
         <v>2178</v>
       </c>
-      <c r="M133" s="8" t="s">
-        <v>2179</v>
-      </c>
       <c r="N133" s="8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="O133" s="8" t="s">
         <v>1824</v>
       </c>
-      <c r="O133" s="8" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133" s="8" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B134" s="8">
         <v>10</v>
@@ -15200,13 +15528,13 @@
       <c r="J134" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O134" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" s="9" customFormat="1">
+      <c r="P134" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" s="9" customFormat="1">
       <c r="A135" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B135" s="8">
         <v>10</v>
@@ -15245,18 +15573,21 @@
         <v>1829</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="N135" s="9" t="s">
+        <v>2534</v>
+      </c>
+      <c r="O135" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="O135" s="9" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" s="9" customFormat="1">
+      <c r="P135" s="9" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" s="9" customFormat="1">
       <c r="A136" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B136" s="8">
         <v>10</v>
@@ -15295,18 +15626,21 @@
         <v>1830</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="N136" s="9" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O136" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="O136" s="9" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="P136" s="9" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B137" s="8">
         <v>10</v>
@@ -15344,16 +15678,16 @@
       <c r="K137" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="O137" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="O137" s="2" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="P137" s="2" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B138" s="8">
         <v>10</v>
@@ -15391,16 +15725,16 @@
       <c r="K138" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="O138" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="O138" s="2" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" s="9" customFormat="1">
+      <c r="P138" s="2" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" s="9" customFormat="1">
       <c r="A139" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B139" s="8">
         <v>10</v>
@@ -15439,18 +15773,21 @@
         <v>1835</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="N139" s="9" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O139" s="9" t="s">
         <v>1835</v>
       </c>
-      <c r="O139" s="9" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="P139" s="9" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B140" s="8">
         <v>10</v>
@@ -15488,13 +15825,13 @@
         <f>'2000'!B135</f>
         <v>134鉄道輸送関連業務従事者</v>
       </c>
-      <c r="O140" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="P140" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B141" s="8">
         <v>10</v>
@@ -15532,16 +15869,16 @@
       <c r="K141" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="N141" s="2" t="s">
+      <c r="O141" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="O141" s="2" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="P141" s="2" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B142" s="8">
         <v>10</v>
@@ -15575,13 +15912,13 @@
       <c r="J142" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O142" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="P142" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B143" s="8">
         <v>10</v>
@@ -15615,16 +15952,16 @@
       <c r="K143" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="N143" s="2" t="s">
+      <c r="O143" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="O143" s="2" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+      <c r="P143" s="2" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B144" s="8">
         <v>10</v>
@@ -15662,16 +15999,16 @@
       <c r="K144" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="N144" s="2" t="s">
+      <c r="O144" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="O144" s="2" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" s="9" customFormat="1">
+      <c r="P144" s="2" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" s="9" customFormat="1">
       <c r="A145" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B145" s="8">
         <v>10</v>
@@ -15710,18 +16047,21 @@
         <v>1844</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N145" s="9" t="s">
+        <v>2351</v>
+      </c>
+      <c r="O145" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="O145" s="9" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="P145" s="9" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B146" s="8">
         <v>10</v>
@@ -15755,13 +16095,13 @@
       <c r="J146" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O146" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="P146" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B147" s="8">
         <v>10</v>
@@ -15799,16 +16139,16 @@
       <c r="K147" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="N147" s="2" t="s">
+      <c r="O147" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="O147" s="2" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="P147" s="2" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B148" s="8">
         <v>10</v>
@@ -15846,16 +16186,16 @@
       <c r="K148" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="O148" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="O148" s="2" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="P148" s="2" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B149" s="8">
         <v>10</v>
@@ -15893,16 +16233,16 @@
       <c r="K149" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="N149" s="2" t="s">
+      <c r="O149" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="O149" s="2" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" s="8" customFormat="1">
+      <c r="P149" s="2" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" s="8" customFormat="1">
       <c r="A150" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B150" s="8">
         <v>11</v>
@@ -15941,21 +16281,24 @@
         <v>1853</v>
       </c>
       <c r="L150" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="M150" s="8" t="s">
         <v>2184</v>
       </c>
-      <c r="M150" s="8" t="s">
-        <v>2185</v>
-      </c>
       <c r="N150" s="8" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O150" s="8" t="s">
         <v>1853</v>
       </c>
-      <c r="O150" s="8" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+      <c r="P150" s="8" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B151" s="8">
         <v>11</v>
@@ -15993,16 +16336,16 @@
       <c r="K151" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="N151" s="2" t="s">
+      <c r="O151" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="O151" s="2" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+      <c r="P151" s="2" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B152" s="8">
         <v>11</v>
@@ -16040,16 +16383,16 @@
       <c r="K152" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="N152" s="2" t="s">
+      <c r="O152" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="O152" s="2" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="P152" s="2" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B153" s="8">
         <v>11</v>
@@ -16087,16 +16430,16 @@
       <c r="K153" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="N153" s="2" t="s">
+      <c r="O153" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="O153" s="2" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="P153" s="2" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B154" s="8">
         <v>11</v>
@@ -16134,16 +16477,16 @@
       <c r="K154" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="N154" s="2" t="s">
+      <c r="O154" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="O154" s="2" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+      <c r="P154" s="2" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B155" s="8">
         <v>11</v>
@@ -16181,16 +16524,16 @@
       <c r="K155" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="N155" s="2" t="s">
+      <c r="O155" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="O155" s="2" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="P155" s="2" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B156" s="8">
         <v>11</v>
@@ -16228,16 +16571,16 @@
       <c r="K156" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="N156" s="2" t="s">
+      <c r="O156" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="O156" s="2" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+      <c r="P156" s="2" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B157" s="8">
         <v>11</v>
@@ -16275,16 +16618,16 @@
       <c r="K157" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="N157" s="2" t="s">
+      <c r="O157" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="O157" s="2" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" s="9" customFormat="1">
+      <c r="P157" s="2" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" s="9" customFormat="1">
       <c r="A158" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B158" s="8">
         <v>11</v>
@@ -16323,18 +16666,21 @@
         <v>1868</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="N158" s="9" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O158" s="9" t="s">
         <v>1868</v>
       </c>
-      <c r="O158" s="9" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="P158" s="9" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B159" s="8">
         <v>11</v>
@@ -16368,13 +16714,13 @@
       <c r="J159" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O159" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+      <c r="P159" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B160" s="8">
         <v>11</v>
@@ -16412,16 +16758,16 @@
       <c r="K160" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="O160" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="O160" s="2" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" s="9" customFormat="1">
+      <c r="P160" s="2" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" s="9" customFormat="1">
       <c r="A161" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B161" s="8">
         <v>11</v>
@@ -16460,18 +16806,21 @@
         <v>1872</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="N161" s="9" t="s">
+        <v>2539</v>
+      </c>
+      <c r="O161" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="O161" s="9" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="P161" s="9" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B162" s="8">
         <v>11</v>
@@ -16509,16 +16858,16 @@
       <c r="K162" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="O162" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="O162" s="2" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="P162" s="2" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B163" s="8">
         <v>11</v>
@@ -16556,16 +16905,16 @@
       <c r="K163" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="N163" s="2" t="s">
+      <c r="O163" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="O163" s="2" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="P163" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B164" s="8">
         <v>11</v>
@@ -16603,16 +16952,16 @@
       <c r="K164" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="N164" s="2" t="s">
+      <c r="O164" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="O164" s="2" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="P164" s="2" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B165" s="8">
         <v>11</v>
@@ -16650,16 +16999,16 @@
       <c r="K165" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="N165" s="2" t="s">
+      <c r="O165" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="O165" s="2" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="P165" s="2" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B166" s="8">
         <v>11</v>
@@ -16697,16 +17046,16 @@
       <c r="K166" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="O166" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="O166" s="2" t="s">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="P166" s="2" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B167" s="8">
         <v>11</v>
@@ -16744,16 +17093,16 @@
       <c r="K167" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="O167" s="2" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="P167" s="2" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B168" s="8">
         <v>11</v>
@@ -16789,15 +17138,15 @@
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
-      <c r="N168" s="9"/>
-      <c r="O168" s="9" t="s">
-        <v>2267</v>
-      </c>
-      <c r="P168" s="9"/>
-    </row>
-    <row r="169" spans="1:16">
+      <c r="O168" s="9"/>
+      <c r="P168" s="9" t="s">
+        <v>2266</v>
+      </c>
+      <c r="Q168" s="9"/>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B169" s="8">
         <v>11</v>
@@ -16835,16 +17184,16 @@
       <c r="K169" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="N169" s="2" t="s">
+      <c r="O169" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="O169" s="2" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" s="9" customFormat="1">
+      <c r="P169" s="2" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" s="9" customFormat="1">
       <c r="A170" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B170" s="8">
         <v>11</v>
@@ -16883,18 +17232,21 @@
         <v>1893</v>
       </c>
       <c r="M170" s="9" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N170" s="9" t="s">
+        <v>2540</v>
+      </c>
+      <c r="O170" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="O170" s="9" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16">
+      <c r="P170" s="9" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B171" s="8">
         <v>11</v>
@@ -16932,16 +17284,16 @@
       <c r="K171" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="O171" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="O171" s="2" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
+      <c r="P171" s="2" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B172" s="8">
         <v>11</v>
@@ -16979,16 +17331,16 @@
       <c r="K172" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="N172" s="2" t="s">
+      <c r="O172" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="O172" s="2" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
+      <c r="P172" s="2" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B173" s="8">
         <v>11</v>
@@ -17026,16 +17378,16 @@
       <c r="K173" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="N173" s="2" t="s">
+      <c r="O173" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="O173" s="2" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="P173" s="2" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B174" s="8">
         <v>11</v>
@@ -17073,16 +17425,16 @@
       <c r="K174" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="O174" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="O174" s="2" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="P174" s="2" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B175" s="8">
         <v>11</v>
@@ -17119,16 +17471,16 @@
       <c r="K175" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="N175" s="2" t="s">
+      <c r="O175" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="O175" s="2" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
+      <c r="P175" s="2" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B176" s="8">
         <v>11</v>
@@ -17166,16 +17518,16 @@
       <c r="K176" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="N176" s="2" t="s">
+      <c r="O176" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="O176" s="2" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+      <c r="P176" s="2" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
       <c r="A177" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B177" s="8">
         <v>11</v>
@@ -17213,16 +17565,16 @@
       <c r="K177" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="N177" s="2" t="s">
+      <c r="O177" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="O177" s="2" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" s="9" customFormat="1">
+      <c r="P177" s="2" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" s="9" customFormat="1">
       <c r="A178" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B178" s="8">
         <v>11</v>
@@ -17261,18 +17613,21 @@
         <v>1905</v>
       </c>
       <c r="M178" s="9" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N178" s="9" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O178" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="O178" s="9" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="P178" s="9" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
       <c r="A179" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B179" s="8">
         <v>11</v>
@@ -17310,16 +17665,16 @@
       <c r="K179" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="N179" s="2" t="s">
+      <c r="O179" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="O179" s="2" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" s="9" customFormat="1">
+      <c r="P179" s="2" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" s="9" customFormat="1">
       <c r="A180" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B180" s="8">
         <v>11</v>
@@ -17358,18 +17713,21 @@
         <v>1909</v>
       </c>
       <c r="M180" s="9" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="N180" s="9" t="s">
+        <v>2542</v>
+      </c>
+      <c r="O180" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="O180" s="9" t="s">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+      <c r="P180" s="9" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
       <c r="A181" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B181" s="8">
         <v>11</v>
@@ -17407,16 +17765,16 @@
       <c r="K181" s="2" t="s">
         <v>1910</v>
       </c>
-      <c r="N181" s="2" t="s">
+      <c r="O181" s="2" t="s">
         <v>1910</v>
       </c>
-      <c r="O181" s="2" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+      <c r="P181" s="2" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B182" s="8">
         <v>11</v>
@@ -17454,16 +17812,16 @@
       <c r="K182" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="N182" s="2" t="s">
+      <c r="O182" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="O182" s="2" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+      <c r="P182" s="2" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
       <c r="A183" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B183" s="8">
         <v>11</v>
@@ -17501,16 +17859,16 @@
       <c r="K183" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="N183" s="2" t="s">
+      <c r="O183" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="O183" s="2" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+      <c r="P183" s="2" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
       <c r="A184" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B184" s="8">
         <v>11</v>
@@ -17548,16 +17906,16 @@
       <c r="K184" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="O184" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="O184" s="2" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
+      <c r="P184" s="2" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
       <c r="A185" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B185" s="8">
         <v>11</v>
@@ -17595,16 +17953,16 @@
       <c r="K185" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="N185" s="2" t="s">
+      <c r="O185" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="O185" s="2" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" s="9" customFormat="1">
+      <c r="P185" s="2" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" s="9" customFormat="1">
       <c r="A186" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B186" s="8">
         <v>11</v>
@@ -17643,18 +18001,21 @@
         <v>1921</v>
       </c>
       <c r="M186" s="9" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="N186" s="9" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O186" s="9" t="s">
         <v>1921</v>
       </c>
-      <c r="O186" s="9" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
+      <c r="P186" s="9" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
       <c r="A187" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B187" s="8">
         <v>11</v>
@@ -17692,16 +18053,16 @@
       <c r="K187" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="N187" s="2" t="s">
+      <c r="O187" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="O187" s="2" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15">
+      <c r="P187" s="2" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
       <c r="A188" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B188" s="8">
         <v>11</v>
@@ -17739,16 +18100,16 @@
       <c r="K188" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="N188" s="2" t="s">
+      <c r="O188" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="O188" s="2" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
+      <c r="P188" s="2" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
       <c r="A189" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B189" s="8">
         <v>11</v>
@@ -17786,16 +18147,16 @@
       <c r="K189" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="O189" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="O189" s="2" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+      <c r="P189" s="2" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
       <c r="A190" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B190" s="8">
         <v>11</v>
@@ -17833,16 +18194,16 @@
       <c r="K190" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="N190" s="2" t="s">
+      <c r="O190" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="O190" s="2" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+      <c r="P190" s="2" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
       <c r="A191" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B191" s="8">
         <v>11</v>
@@ -17880,16 +18241,16 @@
       <c r="K191" s="2" t="s">
         <v>1931</v>
       </c>
-      <c r="N191" s="2" t="s">
+      <c r="O191" s="2" t="s">
         <v>1931</v>
       </c>
-      <c r="O191" s="2" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+      <c r="P191" s="2" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
       <c r="A192" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B192" s="8">
         <v>11</v>
@@ -17927,16 +18288,16 @@
       <c r="K192" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="N192" s="2" t="s">
+      <c r="O192" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="O192" s="2" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" s="9" customFormat="1">
+      <c r="P192" s="2" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" s="9" customFormat="1">
       <c r="A193" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B193" s="8">
         <v>11</v>
@@ -17975,18 +18336,21 @@
         <v>1938</v>
       </c>
       <c r="M193" s="9" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="N193" s="9" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O193" s="9" t="s">
         <v>1938</v>
       </c>
-      <c r="O193" s="9" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15">
+      <c r="P193" s="9" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
       <c r="A194" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B194" s="8">
         <v>11</v>
@@ -18024,16 +18388,16 @@
       <c r="K194" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="N194" s="2" t="s">
+      <c r="O194" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="O194" s="2" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15">
+      <c r="P194" s="2" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
       <c r="A195" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B195" s="8">
         <v>11</v>
@@ -18071,16 +18435,16 @@
       <c r="K195" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="N195" s="2" t="s">
+      <c r="O195" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="O195" s="2" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+      <c r="P195" s="2" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
       <c r="A196" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B196" s="8">
         <v>11</v>
@@ -18118,16 +18482,16 @@
       <c r="K196" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="O196" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="O196" s="2" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15">
+      <c r="P196" s="2" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
       <c r="A197" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B197" s="8">
         <v>11</v>
@@ -18165,16 +18529,16 @@
       <c r="K197" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="N197" s="2" t="s">
+      <c r="O197" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="O197" s="2" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" s="9" customFormat="1">
+      <c r="P197" s="2" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" s="9" customFormat="1">
       <c r="A198" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B198" s="8">
         <v>11</v>
@@ -18213,18 +18577,21 @@
         <v>1944</v>
       </c>
       <c r="M198" s="9" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="N198" s="9" t="s">
+        <v>2545</v>
+      </c>
+      <c r="O198" s="9" t="s">
         <v>1944</v>
       </c>
-      <c r="O198" s="9" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+      <c r="P198" s="9" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
       <c r="A199" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B199" s="8">
         <v>11</v>
@@ -18262,16 +18629,16 @@
       <c r="K199" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="N199" s="2" t="s">
+      <c r="O199" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="O199" s="2" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+      <c r="P199" s="2" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
       <c r="A200" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B200" s="8">
         <v>11</v>
@@ -18309,16 +18676,16 @@
       <c r="K200" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="N200" s="2" t="s">
+      <c r="O200" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="O200" s="2" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+      <c r="P200" s="2" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
       <c r="A201" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B201" s="8">
         <v>11</v>
@@ -18356,16 +18723,16 @@
       <c r="K201" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="N201" s="2" t="s">
+      <c r="O201" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="O201" s="2" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15">
+      <c r="P201" s="2" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
       <c r="A202" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B202" s="8">
         <v>11</v>
@@ -18403,16 +18770,16 @@
       <c r="K202" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="N202" s="2" t="s">
-        <v>2407</v>
-      </c>
       <c r="O202" s="2" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15">
+        <v>2405</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
       <c r="A203" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B203" s="8">
         <v>11</v>
@@ -18450,16 +18817,16 @@
       <c r="K203" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="N203" s="2" t="s">
+      <c r="O203" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="O203" s="2" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15">
+      <c r="P203" s="2" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
       <c r="A204" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B204" s="8">
         <v>11</v>
@@ -18497,16 +18864,16 @@
       <c r="K204" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="N204" s="2" t="s">
+      <c r="O204" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="O204" s="2" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15">
+      <c r="P204" s="2" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
       <c r="A205" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B205" s="8">
         <v>11</v>
@@ -18544,16 +18911,16 @@
       <c r="K205" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="N205" s="2" t="s">
+      <c r="O205" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="O205" s="2" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15">
+      <c r="P205" s="2" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
       <c r="A206" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B206" s="8">
         <v>11</v>
@@ -18590,16 +18957,16 @@
       <c r="K206" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="N206" s="2" t="s">
+      <c r="O206" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="O206" s="2" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" s="9" customFormat="1">
+      <c r="P206" s="2" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" s="9" customFormat="1">
       <c r="A207" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B207" s="8">
         <v>11</v>
@@ -18638,18 +19005,21 @@
         <v>1961</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N207" s="9" t="s">
+        <v>2546</v>
+      </c>
+      <c r="O207" s="9" t="s">
         <v>1961</v>
       </c>
-      <c r="O207" s="9" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15">
+      <c r="P207" s="9" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
       <c r="A208" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B208" s="8">
         <v>11</v>
@@ -18687,16 +19057,16 @@
       <c r="K208" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="N208" s="2" t="s">
+      <c r="O208" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="O208" s="2" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15">
+      <c r="P208" s="2" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16">
       <c r="A209" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B209" s="8">
         <v>11</v>
@@ -18734,16 +19104,16 @@
       <c r="K209" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="N209" s="2" t="s">
+      <c r="O209" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="O209" s="2" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15">
+      <c r="P209" s="2" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16">
       <c r="A210" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B210" s="8">
         <v>11</v>
@@ -18780,16 +19150,16 @@
       <c r="K210" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="N210" s="2" t="s">
+      <c r="O210" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="O210" s="2" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15">
+      <c r="P210" s="2" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
       <c r="A211" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B211" s="8">
         <v>11</v>
@@ -18826,16 +19196,16 @@
       <c r="K211" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="N211" s="2" t="s">
+      <c r="O211" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="O211" s="2" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15">
+      <c r="P211" s="2" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16">
       <c r="A212" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B212" s="8">
         <v>11</v>
@@ -18873,16 +19243,16 @@
       <c r="K212" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="N212" s="2" t="s">
+      <c r="O212" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="O212" s="2" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15">
+      <c r="P212" s="2" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
       <c r="A213" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B213" s="8">
         <v>11</v>
@@ -18920,16 +19290,16 @@
       <c r="K213" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="N213" s="2" t="s">
+      <c r="O213" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="O213" s="2" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" s="9" customFormat="1">
+      <c r="P213" s="2" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" s="9" customFormat="1">
       <c r="A214" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B214" s="8">
         <v>11</v>
@@ -18968,18 +19338,21 @@
         <v>1976</v>
       </c>
       <c r="M214" s="9" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="N214" s="9" t="s">
+        <v>2547</v>
+      </c>
+      <c r="O214" s="9" t="s">
         <v>1976</v>
       </c>
-      <c r="O214" s="9" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
+      <c r="P214" s="9" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16">
       <c r="A215" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B215" s="8">
         <v>11</v>
@@ -19012,13 +19385,13 @@
       <c r="J215" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O215" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15">
+      <c r="P215" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16">
       <c r="A216" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B216" s="8">
         <v>11</v>
@@ -19056,16 +19429,16 @@
       <c r="K216" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="N216" s="2" t="s">
+      <c r="O216" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="O216" s="2" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15">
+      <c r="P216" s="2" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
       <c r="A217" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B217" s="8">
         <v>11</v>
@@ -19098,13 +19471,13 @@
       <c r="J217" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O217" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15">
+      <c r="P217" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
       <c r="A218" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B218" s="8">
         <v>11</v>
@@ -19142,16 +19515,16 @@
       <c r="K218" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="N218" s="2" t="s">
+      <c r="O218" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="O218" s="2" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15">
+      <c r="P218" s="2" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
       <c r="A219" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B219" s="8">
         <v>11</v>
@@ -19189,16 +19562,16 @@
       <c r="K219" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="N219" s="2" t="s">
+      <c r="O219" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="O219" s="2" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15">
+      <c r="P219" s="2" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
       <c r="A220" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B220" s="8">
         <v>11</v>
@@ -19236,16 +19609,16 @@
       <c r="K220" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="N220" s="2" t="s">
+      <c r="O220" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="O220" s="2" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15">
+      <c r="P220" s="2" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
       <c r="A221" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B221" s="8">
         <v>11</v>
@@ -19279,13 +19652,13 @@
       <c r="J221" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O221" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15">
+      <c r="P221" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
       <c r="A222" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B222" s="8">
         <v>11</v>
@@ -19323,16 +19696,16 @@
       <c r="K222" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="N222" s="2" t="s">
+      <c r="O222" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="O222" s="2" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15">
+      <c r="P222" s="2" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16">
       <c r="A223" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B223" s="8">
         <v>11</v>
@@ -19370,16 +19743,16 @@
       <c r="K223" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="N223" s="2" t="s">
+      <c r="O223" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="O223" s="2" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
+      <c r="P223" s="2" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16">
       <c r="A224" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B224" s="8">
         <v>11</v>
@@ -19417,16 +19790,16 @@
       <c r="K224" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="N224" s="2" t="s">
+      <c r="O224" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="O224" s="2" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" s="9" customFormat="1">
+      <c r="P224" s="2" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" s="9" customFormat="1">
       <c r="A225" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B225" s="8">
         <v>11</v>
@@ -19465,18 +19838,21 @@
         <v>1998</v>
       </c>
       <c r="M225" s="9" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="N225" s="9" t="s">
+        <v>2548</v>
+      </c>
+      <c r="O225" s="9" t="s">
         <v>1998</v>
       </c>
-      <c r="O225" s="9" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
+      <c r="P225" s="9" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16">
       <c r="A226" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B226" s="8">
         <v>11</v>
@@ -19514,16 +19890,16 @@
       <c r="K226" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="N226" s="2" t="s">
+      <c r="O226" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="O226" s="2" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15">
+      <c r="P226" s="2" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
       <c r="A227" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B227" s="8">
         <v>11</v>
@@ -19561,16 +19937,16 @@
       <c r="K227" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="N227" s="2" t="s">
+      <c r="O227" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="O227" s="2" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15">
+      <c r="P227" s="2" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16">
       <c r="A228" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B228" s="8">
         <v>11</v>
@@ -19608,16 +19984,16 @@
       <c r="K228" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="N228" s="2" t="s">
+      <c r="O228" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="O228" s="2" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15">
+      <c r="P228" s="2" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16">
       <c r="A229" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B229" s="8">
         <v>11</v>
@@ -19655,16 +20031,16 @@
       <c r="K229" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="N229" s="2" t="s">
+      <c r="O229" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="O229" s="2" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
+      <c r="P229" s="2" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16">
       <c r="A230" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B230" s="8">
         <v>11</v>
@@ -19702,16 +20078,16 @@
       <c r="K230" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="N230" s="2" t="s">
+      <c r="O230" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="O230" s="2" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15">
+      <c r="P230" s="2" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16">
       <c r="A231" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B231" s="8">
         <v>11</v>
@@ -19749,16 +20125,16 @@
       <c r="K231" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="N231" s="2" t="s">
+      <c r="O231" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="O231" s="2" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" s="9" customFormat="1">
+      <c r="P231" s="2" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" s="9" customFormat="1">
       <c r="A232" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B232" s="8">
         <v>11</v>
@@ -19797,18 +20173,21 @@
         <v>2006</v>
       </c>
       <c r="M232" s="9" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="N232" s="9" t="s">
+        <v>2549</v>
+      </c>
+      <c r="O232" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="O232" s="9" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15">
+      <c r="P232" s="9" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16">
       <c r="A233" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B233" s="8">
         <v>11</v>
@@ -19842,13 +20221,13 @@
       <c r="J233" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O233" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15">
+      <c r="P233" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
       <c r="A234" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B234" s="8">
         <v>11</v>
@@ -19886,16 +20265,16 @@
       <c r="K234" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="N234" s="2" t="s">
+      <c r="O234" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="O234" s="2" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15">
+      <c r="P234" s="2" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
       <c r="A235" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B235" s="8">
         <v>11</v>
@@ -19933,16 +20312,16 @@
       <c r="K235" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="N235" s="2" t="s">
+      <c r="O235" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="O235" s="2" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15">
+      <c r="P235" s="2" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16">
       <c r="A236" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B236" s="8">
         <v>11</v>
@@ -19980,16 +20359,16 @@
       <c r="K236" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="N236" s="2" t="s">
+      <c r="O236" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="O236" s="2" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15">
+      <c r="P236" s="2" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16">
       <c r="A237" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B237" s="8">
         <v>11</v>
@@ -20023,13 +20402,13 @@
       <c r="J237" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O237" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15">
+      <c r="P237" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
       <c r="A238" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B238" s="8">
         <v>11</v>
@@ -20067,16 +20446,16 @@
       <c r="K238" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="N238" s="2" t="s">
+      <c r="O238" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="O238" s="2" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15">
+      <c r="P238" s="2" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
       <c r="A239" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B239" s="8">
         <v>11</v>
@@ -20110,13 +20489,13 @@
       <c r="J239" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O239" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15">
+      <c r="P239" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
       <c r="A240" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B240" s="8">
         <v>11</v>
@@ -20154,16 +20533,16 @@
       <c r="K240" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="N240" s="2" t="s">
+      <c r="O240" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="O240" s="2" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" s="9" customFormat="1">
+      <c r="P240" s="2" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" s="9" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B241" s="8">
         <v>11</v>
@@ -20202,18 +20581,21 @@
         <v>2022</v>
       </c>
       <c r="M241" s="9" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="N241" s="9" t="s">
+        <v>2550</v>
+      </c>
+      <c r="O241" s="9" t="s">
         <v>2022</v>
       </c>
-      <c r="O241" s="9" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15">
+      <c r="P241" s="9" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16">
       <c r="A242" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B242" s="8">
         <v>11</v>
@@ -20251,16 +20633,16 @@
       <c r="K242" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="N242" s="2" t="s">
+      <c r="O242" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="O242" s="2" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15">
+      <c r="P242" s="2" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16">
       <c r="A243" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B243" s="8">
         <v>11</v>
@@ -20298,16 +20680,16 @@
       <c r="K243" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="N243" s="2" t="s">
+      <c r="O243" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="O243" s="2" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15">
+      <c r="P243" s="2" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16">
       <c r="A244" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B244" s="8">
         <v>11</v>
@@ -20345,16 +20727,16 @@
       <c r="K244" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="N244" s="2" t="s">
+      <c r="O244" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="O244" s="2" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15">
+      <c r="P244" s="2" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16">
       <c r="A245" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B245" s="8">
         <v>11</v>
@@ -20392,16 +20774,16 @@
       <c r="K245" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="N245" s="2" t="s">
+      <c r="O245" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="O245" s="2" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" s="9" customFormat="1">
+      <c r="P245" s="2" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" s="9" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B246" s="8">
         <v>11</v>
@@ -20440,18 +20822,21 @@
         <v>2032</v>
       </c>
       <c r="M246" s="9" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="N246" s="9" t="s">
+        <v>2551</v>
+      </c>
+      <c r="O246" s="9" t="s">
         <v>2032</v>
       </c>
-      <c r="O246" s="9" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15">
+      <c r="P246" s="9" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16">
       <c r="A247" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B247" s="8">
         <v>11</v>
@@ -20489,16 +20874,16 @@
       <c r="K247" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="N247" s="2" t="s">
+      <c r="O247" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="O247" s="2" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15">
+      <c r="P247" s="2" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16">
       <c r="A248" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B248" s="8">
         <v>11</v>
@@ -20536,16 +20921,16 @@
       <c r="K248" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="N248" s="2" t="s">
+      <c r="O248" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="O248" s="2" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15">
+      <c r="P248" s="2" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16">
       <c r="A249" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B249" s="8">
         <v>11</v>
@@ -20583,16 +20968,16 @@
       <c r="K249" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="N249" s="2" t="s">
+      <c r="O249" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="O249" s="2" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15">
+      <c r="P249" s="2" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16">
       <c r="A250" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B250" s="8">
         <v>11</v>
@@ -20630,16 +21015,16 @@
       <c r="K250" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="N250" s="2" t="s">
+      <c r="O250" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="O250" s="2" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" s="9" customFormat="1">
+      <c r="P250" s="2" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" s="9" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B251" s="8">
         <v>11</v>
@@ -20678,18 +21063,21 @@
         <v>2040</v>
       </c>
       <c r="M251" s="9" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="N251" s="9" t="s">
+        <v>2552</v>
+      </c>
+      <c r="O251" s="9" t="s">
         <v>2040</v>
       </c>
-      <c r="O251" s="9" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15">
+      <c r="P251" s="9" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16">
       <c r="A252" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B252" s="8">
         <v>11</v>
@@ -20723,13 +21111,13 @@
       <c r="J252" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O252" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15">
+      <c r="P252" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16">
       <c r="A253" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B253" s="8">
         <v>11</v>
@@ -20767,16 +21155,16 @@
       <c r="K253" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="N253" s="2" t="s">
+      <c r="O253" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="O253" s="2" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15">
+      <c r="P253" s="2" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16">
       <c r="A254" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B254" s="8">
         <v>11</v>
@@ -20814,16 +21202,16 @@
       <c r="K254" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="N254" s="2" t="s">
+      <c r="O254" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="O254" s="2" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" s="9" customFormat="1">
+      <c r="P254" s="2" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" s="9" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B255" s="8">
         <v>11</v>
@@ -20862,18 +21250,21 @@
         <v>2046</v>
       </c>
       <c r="M255" s="9" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="N255" s="9" t="s">
+        <v>2553</v>
+      </c>
+      <c r="O255" s="9" t="s">
         <v>2046</v>
       </c>
-      <c r="O255" s="9" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15">
+      <c r="P255" s="9" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16">
       <c r="A256" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B256" s="8">
         <v>11</v>
@@ -20911,16 +21302,16 @@
       <c r="K256" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="N256" s="2" t="s">
+      <c r="O256" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="O256" s="2" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15">
+      <c r="P256" s="2" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16">
       <c r="A257" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B257" s="8">
         <v>11</v>
@@ -20958,16 +21349,16 @@
       <c r="K257" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="N257" s="2" t="s">
+      <c r="O257" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="O257" s="2" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" s="9" customFormat="1">
+      <c r="P257" s="2" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" s="9" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B258" s="8">
         <v>11</v>
@@ -21006,18 +21397,21 @@
         <v>2051</v>
       </c>
       <c r="M258" s="9" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="N258" s="9" t="s">
+        <v>2554</v>
+      </c>
+      <c r="O258" s="9" t="s">
         <v>2051</v>
       </c>
-      <c r="O258" s="9" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15">
+      <c r="P258" s="9" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16">
       <c r="A259" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B259" s="8">
         <v>11</v>
@@ -21055,16 +21449,16 @@
       <c r="K259" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="N259" s="2" t="s">
+      <c r="O259" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="O259" s="2" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15">
+      <c r="P259" s="2" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16">
       <c r="A260" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B260" s="8">
         <v>11</v>
@@ -21102,16 +21496,16 @@
       <c r="K260" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="N260" s="2" t="s">
+      <c r="O260" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="O260" s="2" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15">
+      <c r="P260" s="2" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16">
       <c r="A261" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B261" s="8">
         <v>11</v>
@@ -21149,16 +21543,16 @@
       <c r="K261" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="N261" s="2" t="s">
+      <c r="O261" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="O261" s="2" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15">
+      <c r="P261" s="2" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16">
       <c r="A262" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B262" s="8">
         <v>11</v>
@@ -21196,16 +21590,16 @@
       <c r="K262" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="N262" s="2" t="s">
+      <c r="O262" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="O262" s="2" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15">
+      <c r="P262" s="2" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16">
       <c r="A263" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B263" s="8">
         <v>11</v>
@@ -21243,16 +21637,16 @@
       <c r="K263" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="N263" s="2" t="s">
+      <c r="O263" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="O263" s="2" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15">
+      <c r="P263" s="2" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16">
       <c r="A264" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B264" s="8">
         <v>11</v>
@@ -21290,16 +21684,16 @@
       <c r="K264" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="N264" s="2" t="s">
+      <c r="O264" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="O264" s="2" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15">
+      <c r="P264" s="2" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16">
       <c r="A265" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B265" s="8">
         <v>11</v>
@@ -21337,16 +21731,16 @@
       <c r="K265" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="N265" s="2" t="s">
-        <v>2465</v>
-      </c>
       <c r="O265" s="2" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15">
+        <v>2463</v>
+      </c>
+      <c r="P265" s="2" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16">
       <c r="A266" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B266" s="8">
         <v>11</v>
@@ -21384,16 +21778,16 @@
       <c r="K266" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="N266" s="2" t="s">
+      <c r="O266" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="O266" s="2" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15">
+      <c r="P266" s="2" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16">
       <c r="A267" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B267" s="8">
         <v>11</v>
@@ -21431,16 +21825,16 @@
       <c r="K267" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="N267" s="2" t="s">
+      <c r="O267" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="O267" s="2" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15">
+      <c r="P267" s="2" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16">
       <c r="A268" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B268" s="8">
         <v>11</v>
@@ -21474,13 +21868,13 @@
       <c r="J268" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O268" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15">
+      <c r="P268" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16">
       <c r="A269" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B269" s="8">
         <v>11</v>
@@ -21518,16 +21912,16 @@
       <c r="K269" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="N269" s="2" t="s">
+      <c r="O269" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="O269" s="2" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15">
+      <c r="P269" s="2" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16">
       <c r="A270" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B270" s="8">
         <v>11</v>
@@ -21565,16 +21959,16 @@
       <c r="K270" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="N270" s="2" t="s">
+      <c r="O270" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="O270" s="2" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15">
+      <c r="P270" s="2" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16">
       <c r="A271" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B271" s="8">
         <v>11</v>
@@ -21611,13 +22005,13 @@
       <c r="K271" s="2" t="s">
         <v>2073</v>
       </c>
-      <c r="O271" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15">
+      <c r="P271" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16">
       <c r="A272" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B272" s="8">
         <v>11</v>
@@ -21650,13 +22044,13 @@
       <c r="J272" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O272" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" s="8" customFormat="1">
+      <c r="P272" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" s="8" customFormat="1">
       <c r="A273" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B273" s="8">
         <v>12</v>
@@ -21695,21 +22089,24 @@
         <v>2078</v>
       </c>
       <c r="L273" s="8" t="s">
+        <v>2201</v>
+      </c>
+      <c r="M273" s="8" t="s">
         <v>2202</v>
       </c>
-      <c r="M273" s="8" t="s">
-        <v>2203</v>
-      </c>
       <c r="N273" s="8" t="s">
+        <v>2555</v>
+      </c>
+      <c r="O273" s="8" t="s">
         <v>2078</v>
       </c>
-      <c r="O273" s="8" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15">
+      <c r="P273" s="8" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16">
       <c r="A274" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B274" s="8">
         <v>12</v>
@@ -21747,16 +22144,16 @@
       <c r="K274" s="2" t="s">
         <v>2079</v>
       </c>
-      <c r="N274" s="2" t="s">
+      <c r="O274" s="2" t="s">
         <v>2079</v>
       </c>
-      <c r="O274" s="2" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15">
+      <c r="P274" s="2" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16">
       <c r="A275" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B275" s="8">
         <v>12</v>
@@ -21794,16 +22191,16 @@
       <c r="K275" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="N275" s="2" t="s">
+      <c r="O275" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="O275" s="2" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15">
+      <c r="P275" s="2" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16">
       <c r="A276" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B276" s="8">
         <v>12</v>
@@ -21841,16 +22238,16 @@
       <c r="K276" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="N276" s="2" t="s">
+      <c r="O276" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="O276" s="2" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" s="9" customFormat="1">
+      <c r="P276" s="2" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" s="9" customFormat="1">
       <c r="A277" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B277" s="8">
         <v>12</v>
@@ -21889,18 +22286,21 @@
         <v>2087</v>
       </c>
       <c r="M277" s="9" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="N277" s="9" t="s">
+        <v>2556</v>
+      </c>
+      <c r="O277" s="9" t="s">
         <v>2087</v>
       </c>
-      <c r="O277" s="9" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15">
+      <c r="P277" s="9" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16">
       <c r="A278" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B278" s="8">
         <v>12</v>
@@ -21938,16 +22338,16 @@
       <c r="K278" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="N278" s="2" t="s">
+      <c r="O278" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="O278" s="2" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15">
+      <c r="P278" s="2" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16">
       <c r="A279" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B279" s="8">
         <v>12</v>
@@ -21985,16 +22385,16 @@
       <c r="K279" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="N279" s="2" t="s">
+      <c r="O279" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="O279" s="2" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15">
+      <c r="P279" s="2" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16">
       <c r="A280" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B280" s="8">
         <v>12</v>
@@ -22032,16 +22432,16 @@
       <c r="K280" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="N280" s="2" t="s">
-        <v>2090</v>
-      </c>
       <c r="O280" s="2" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="281" spans="1:15">
+      <c r="P280" s="2" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16">
       <c r="A281" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B281" s="8">
         <v>12</v>
@@ -22079,16 +22479,16 @@
       <c r="K281" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="N281" s="2" t="s">
+      <c r="O281" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="O281" s="2" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" s="8" customFormat="1">
+      <c r="P281" s="2" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" s="8" customFormat="1">
       <c r="A282" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B282" s="8">
         <v>13</v>
@@ -22127,21 +22527,24 @@
         <v>2094</v>
       </c>
       <c r="L282" s="8" t="s">
+        <v>2204</v>
+      </c>
+      <c r="M282" s="8" t="s">
         <v>2205</v>
       </c>
-      <c r="M282" s="8" t="s">
-        <v>2206</v>
-      </c>
       <c r="N282" s="8" t="s">
+        <v>2557</v>
+      </c>
+      <c r="O282" s="8" t="s">
         <v>2094</v>
       </c>
-      <c r="O282" s="8" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15">
+      <c r="P282" s="8" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16">
       <c r="A283" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B283" s="8">
         <v>13</v>
@@ -22175,13 +22578,13 @@
       <c r="J283" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O283" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15">
+      <c r="P283" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16">
       <c r="A284" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B284" s="8">
         <v>13</v>
@@ -22215,13 +22618,13 @@
       <c r="J284" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O284" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15">
+      <c r="P284" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16">
       <c r="A285" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B285" s="8">
         <v>13</v>
@@ -22254,13 +22657,13 @@
       <c r="J285" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O285" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15">
+      <c r="P285" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16">
       <c r="A286" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B286" s="8">
         <v>13</v>
@@ -22293,13 +22696,13 @@
       <c r="J286" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O286" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15">
+      <c r="P286" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16">
       <c r="A287" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B287" s="8">
         <v>13</v>
@@ -22332,13 +22735,13 @@
       <c r="J287" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O287" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15">
+      <c r="P287" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16">
       <c r="A288" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B288" s="8">
         <v>13</v>
@@ -22371,13 +22774,13 @@
       <c r="J288" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O288" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15">
+      <c r="P288" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16">
       <c r="A289" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B289" s="8">
         <v>13</v>
@@ -22415,16 +22818,16 @@
       <c r="K289" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="N289" s="2" t="s">
+      <c r="O289" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="O289" s="2" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" s="9" customFormat="1">
+      <c r="P289" s="2" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" s="9" customFormat="1">
       <c r="A290" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B290" s="8">
         <v>13</v>
@@ -22463,18 +22866,21 @@
         <v>2106</v>
       </c>
       <c r="M290" s="9" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="N290" s="9" t="s">
+        <v>2558</v>
+      </c>
+      <c r="O290" s="9" t="s">
         <v>2106</v>
       </c>
-      <c r="O290" s="9" t="s">
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15">
+      <c r="P290" s="9" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16">
       <c r="A291" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B291" s="8">
         <v>13</v>
@@ -22512,16 +22918,16 @@
       <c r="K291" s="2" t="s">
         <v>2107</v>
       </c>
-      <c r="N291" s="2" t="s">
+      <c r="O291" s="2" t="s">
         <v>2107</v>
       </c>
-      <c r="O291" s="2" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15">
+      <c r="P291" s="2" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16">
       <c r="A292" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B292" s="8">
         <v>13</v>
@@ -22559,16 +22965,16 @@
       <c r="K292" s="2" t="s">
         <v>2109</v>
       </c>
-      <c r="N292" s="2" t="s">
+      <c r="O292" s="2" t="s">
         <v>2108</v>
       </c>
-      <c r="O292" s="2" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15">
+      <c r="P292" s="2" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16">
       <c r="A293" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B293" s="8">
         <v>13</v>
@@ -22606,16 +23012,16 @@
       <c r="K293" s="2" t="s">
         <v>2110</v>
       </c>
-      <c r="N293" s="2" t="s">
+      <c r="O293" s="2" t="s">
         <v>2110</v>
       </c>
-      <c r="O293" s="2" t="s">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15">
+      <c r="P293" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16">
       <c r="A294" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B294" s="8">
         <v>13</v>
@@ -22653,16 +23059,16 @@
       <c r="K294" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="N294" s="2" t="s">
+      <c r="O294" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="O294" s="2" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15">
+      <c r="P294" s="2" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16">
       <c r="A295" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B295" s="8">
         <v>13</v>
@@ -22700,16 +23106,16 @@
       <c r="K295" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="N295" s="2" t="s">
+      <c r="O295" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="O295" s="2" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15">
+      <c r="P295" s="2" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16">
       <c r="A296" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B296" s="8">
         <v>13</v>
@@ -22747,16 +23153,16 @@
       <c r="K296" s="2" t="s">
         <v>2113</v>
       </c>
-      <c r="N296" s="2" t="s">
+      <c r="O296" s="2" t="s">
         <v>2113</v>
       </c>
-      <c r="O296" s="2" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15">
+      <c r="P296" s="2" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16">
       <c r="A297" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B297" s="8">
         <v>13</v>
@@ -22794,16 +23200,16 @@
       <c r="K297" s="2" t="s">
         <v>2114</v>
       </c>
-      <c r="N297" s="2" t="s">
+      <c r="O297" s="2" t="s">
         <v>2114</v>
       </c>
-      <c r="O297" s="2" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15">
+      <c r="P297" s="2" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16">
       <c r="A298" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B298" s="8">
         <v>13</v>
@@ -22841,16 +23247,16 @@
       <c r="K298" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="N298" s="2" t="s">
+      <c r="O298" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="O298" s="2" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15">
+      <c r="P298" s="2" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16">
       <c r="A299" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B299" s="8">
         <v>13</v>
@@ -22888,16 +23294,16 @@
       <c r="K299" s="2" t="s">
         <v>2116</v>
       </c>
-      <c r="N299" s="2" t="s">
+      <c r="O299" s="2" t="s">
         <v>2117</v>
       </c>
-      <c r="O299" s="2" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" s="9" customFormat="1">
+      <c r="P299" s="2" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" s="9" customFormat="1">
       <c r="A300" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B300" s="8">
         <v>13</v>
@@ -22936,18 +23342,21 @@
         <v>2123</v>
       </c>
       <c r="M300" s="9" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="N300" s="9" t="s">
+        <v>2559</v>
+      </c>
+      <c r="O300" s="9" t="s">
         <v>2123</v>
       </c>
-      <c r="O300" s="9" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15">
+      <c r="P300" s="9" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16">
       <c r="A301" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B301" s="8">
         <v>13</v>
@@ -22985,16 +23394,16 @@
       <c r="K301" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="N301" s="2" t="s">
+      <c r="O301" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="O301" s="2" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15">
+      <c r="P301" s="2" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16">
       <c r="A302" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B302" s="8">
         <v>13</v>
@@ -23032,16 +23441,16 @@
       <c r="K302" s="2" t="s">
         <v>2125</v>
       </c>
-      <c r="N302" s="2" t="s">
+      <c r="O302" s="2" t="s">
         <v>2125</v>
       </c>
-      <c r="O302" s="2" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15">
+      <c r="P302" s="2" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16">
       <c r="A303" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B303" s="8">
         <v>13</v>
@@ -23079,16 +23488,16 @@
       <c r="K303" s="2" t="s">
         <v>2126</v>
       </c>
-      <c r="N303" s="2" t="s">
+      <c r="O303" s="2" t="s">
         <v>2126</v>
       </c>
-      <c r="O303" s="2" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15">
+      <c r="P303" s="2" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16">
       <c r="A304" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B304" s="8">
         <v>13</v>
@@ -23126,16 +23535,16 @@
       <c r="K304" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="N304" s="2" t="s">
+      <c r="O304" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="O304" s="2" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15" s="9" customFormat="1">
+      <c r="P304" s="2" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" s="9" customFormat="1">
       <c r="A305" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B305" s="8">
         <v>13</v>
@@ -23174,18 +23583,21 @@
         <v>2130</v>
       </c>
       <c r="M305" s="9" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="N305" s="9" t="s">
+        <v>2560</v>
+      </c>
+      <c r="O305" s="9" t="s">
         <v>2130</v>
       </c>
-      <c r="O305" s="9" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15">
+      <c r="P305" s="9" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16">
       <c r="A306" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B306" s="8">
         <v>13</v>
@@ -23223,16 +23635,16 @@
       <c r="K306" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="N306" s="2" t="s">
+      <c r="O306" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="O306" s="2" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15" s="8" customFormat="1">
+      <c r="P306" s="2" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" s="8" customFormat="1">
       <c r="A307" s="8" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B307" s="8">
         <v>10</v>
@@ -23271,16 +23683,19 @@
         <v>2133</v>
       </c>
       <c r="L307" s="8" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="M307" s="8" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="N307" s="8" t="s">
+        <v>2496</v>
+      </c>
+      <c r="O307" s="8" t="s">
         <v>2133</v>
       </c>
-      <c r="O307" s="8" t="s">
-        <v>2498</v>
+      <c r="P307" s="8" t="s">
+        <v>2496</v>
       </c>
     </row>
   </sheetData>

--- a/basic/data/OccupationalCrosswalk1985-2005V02.xlsx
+++ b/basic/data/OccupationalCrosswalk1985-2005V02.xlsx
@@ -8658,7 +8658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8695,6 +8695,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8710,7 +8716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8745,6 +8751,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9069,28 +9078,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W307"/>
+  <dimension ref="A1:P307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M40" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
     <col min="2" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11.25" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="60.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.875" style="2" customWidth="1"/>
     <col min="15" max="15" width="43.125" style="2" customWidth="1"/>
     <col min="16" max="16" width="26.625" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>2136</v>
       </c>
@@ -9140,7 +9150,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1">
+    <row r="2" spans="1:16" s="8" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9158,7 +9168,7 @@
         <v>1545</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>CONCATENATE(F$1,"00",LEFT('1990'!B2))</f>
+        <f>CONCATENATE(F$1,"00",LEFT('1985'!B2))</f>
         <v>1985001</v>
       </c>
       <c r="G2" s="8" t="str">
@@ -9196,7 +9206,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9214,7 +9224,7 @@
         <v>1547</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>CONCATENATE(F$1,"00",LEFT('1990'!B3))</f>
+        <f>CONCATENATE(F$1,"00",LEFT('1985'!B3))</f>
         <v>1985002</v>
       </c>
       <c r="G3" s="2" t="str">
@@ -9243,7 +9253,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:16">
       <c r="A4" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9296,10 +9306,8 @@
       <c r="P4" s="9" t="s">
         <v>2502</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:23" s="9" customFormat="1">
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9348,15 +9356,8 @@
       <c r="P5" s="2" t="s">
         <v>2222</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9446,7 +9447,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9584,7 +9585,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="6" customFormat="1">
+    <row r="14" spans="1:16" s="6" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="9" customFormat="1">
+    <row r="15" spans="1:16" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
         <v>2213</v>
       </c>
@@ -12297,8 +12298,8 @@
         <v>1695</v>
       </c>
       <c r="F67" s="2" t="str">
-        <f>CONCATENATE(F$1,"0",LEFT('1985'!B66,2))</f>
-        <v>1985065</v>
+        <f>CONCATENATE(F$1,"0",LEFT('1985'!B63,2))</f>
+        <v>1985062</v>
       </c>
       <c r="G67" s="2" t="str">
         <f>CONCATENATE(G$1,"0",LEFT('1990'!B60,2))</f>
@@ -12344,8 +12345,8 @@
         <v>1696</v>
       </c>
       <c r="F68" s="9" t="str">
-        <f>CONCATENATE(F$1,"0",LEFT('1985'!B67,2))</f>
-        <v>1985066</v>
+        <f>CONCATENATE(F$1,"0",LEFT('1985'!B66,2))</f>
+        <v>1985065</v>
       </c>
       <c r="G68" s="9" t="str">
         <f>CONCATENATE(G$1,"0",LEFT('1990'!B61,2))</f>
@@ -12397,8 +12398,8 @@
         <v>1697</v>
       </c>
       <c r="F69" s="6" t="str">
-        <f>CONCATENATE(F$1,"0",LEFT('1985'!B64,2))</f>
-        <v>1985063</v>
+        <f>CONCATENATE(F$1,"0",LEFT('1985'!B67,2))</f>
+        <v>1985066</v>
       </c>
       <c r="G69" s="6" t="str">
         <f>CONCATENATE(G$1,"0",LEFT('1990'!B62,2))</f>
@@ -12444,8 +12445,8 @@
         <v>1698</v>
       </c>
       <c r="F70" s="9" t="str">
-        <f>CONCATENATE(F$1,"0",LEFT('1985'!B65,2))</f>
-        <v>1985064</v>
+        <f>CONCATENATE(F$1,"0",LEFT('1985'!B64,2))</f>
+        <v>1985063</v>
       </c>
       <c r="G70" s="9" t="str">
         <f>CONCATENATE(G$1,"0",LEFT('1990'!B63,2))</f>
@@ -12497,8 +12498,8 @@
         <v>1699</v>
       </c>
       <c r="F71" s="2" t="str">
-        <f>CONCATENATE(F$1,"0",LEFT('1985'!B67,2))</f>
-        <v>1985066</v>
+        <f>CONCATENATE(F$1,"0",LEFT('1985'!B65,2))</f>
+        <v>1985064</v>
       </c>
       <c r="G71" s="2" t="str">
         <f>CONCATENATE(G$1,"0",LEFT('1990'!B64,2))</f>
@@ -16765,7 +16766,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="161" spans="1:17" s="9" customFormat="1">
+    <row r="161" spans="1:16" s="9" customFormat="1">
       <c r="A161" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:16">
       <c r="A162" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16865,7 +16866,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:16">
       <c r="A163" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:16">
       <c r="A164" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16959,7 +16960,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:16">
       <c r="A165" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:16">
       <c r="A166" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:16">
       <c r="A167" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17100,7 +17101,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:16">
       <c r="A168" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17142,9 +17143,8 @@
       <c r="P168" s="9" t="s">
         <v>2266</v>
       </c>
-      <c r="Q168" s="9"/>
-    </row>
-    <row r="169" spans="1:17">
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="170" spans="1:17" s="9" customFormat="1">
+    <row r="170" spans="1:16" s="9" customFormat="1">
       <c r="A170" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:16">
       <c r="A171" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:16">
       <c r="A172" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:16">
       <c r="A173" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:16">
       <c r="A174" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:16">
       <c r="A175" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:16">
       <c r="A176" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18748,8 +18748,8 @@
         <v>1951</v>
       </c>
       <c r="F202" s="3" t="str">
-        <f>CONCATENATE(F$1,LEFT('1985'!B213,3))</f>
-        <v>1985212</v>
+        <f>CONCATENATE(F$1,LEFT('1985'!B214,3))</f>
+        <v>1985213</v>
       </c>
       <c r="G202" s="2" t="str">
         <f>CONCATENATE(G$1,LEFT('1990'!B200,3))</f>
@@ -18795,8 +18795,8 @@
         <v>1953</v>
       </c>
       <c r="F203" s="3" t="str">
-        <f>CONCATENATE(F$1,LEFT('1985'!B214,3))</f>
-        <v>1985213</v>
+        <f>CONCATENATE(F$1,LEFT('1985'!B218,3))</f>
+        <v>1985217</v>
       </c>
       <c r="G203" s="2" t="str">
         <f>CONCATENATE(G$1,LEFT('1990'!B201,3))</f>
@@ -18990,8 +18990,8 @@
         <v>1990204</v>
       </c>
       <c r="H207" s="9" t="str">
-        <f>CONCATENATE(H$1,LEFT('1995'!B195,3))</f>
-        <v>1995194</v>
+        <f>CONCATENATE(H$1,LEFT('1995'!B205,3))</f>
+        <v>1995204</v>
       </c>
       <c r="I207" s="9" t="str">
         <f>CONCATENATE(I$1,LEFT('2000'!B203,3))</f>
@@ -22683,12 +22683,12 @@
         <v>1985101</v>
       </c>
       <c r="G286" s="2" t="str">
-        <f>CONCATENATE(G$1,LEFT('1990'!B141,3))</f>
-        <v>1990140</v>
+        <f>CONCATENATE(G$1,LEFT('1990'!B142,3))</f>
+        <v>1990141</v>
       </c>
       <c r="H286" s="2" t="str">
-        <f>CONCATENATE(H$1,LEFT('1995'!B141,3))</f>
-        <v>1995140</v>
+        <f>CONCATENATE(H$1,LEFT('1995'!B142,3))</f>
+        <v>1995141</v>
       </c>
       <c r="I286" s="2" t="s">
         <v>1691</v>
@@ -22722,12 +22722,12 @@
         <v>1985102</v>
       </c>
       <c r="G287" s="2" t="str">
-        <f>CONCATENATE(G$1,LEFT('1990'!B142,3))</f>
-        <v>1990141</v>
+        <f>CONCATENATE(G$1,LEFT('1990'!B143,3))</f>
+        <v>1990142</v>
       </c>
       <c r="H287" s="2" t="str">
-        <f>CONCATENATE(H$1,LEFT('1995'!B142,3))</f>
-        <v>1995141</v>
+        <f>CONCATENATE(H$1,LEFT('1995'!B143,3))</f>
+        <v>1995142</v>
       </c>
       <c r="I287" s="2" t="s">
         <v>1691</v>
@@ -22761,12 +22761,12 @@
         <v>1985103</v>
       </c>
       <c r="G288" s="2" t="str">
-        <f>CONCATENATE(G$1,LEFT('1990'!B143,3))</f>
-        <v>1990142</v>
+        <f>CONCATENATE(G$1,LEFT('1990'!B144,3))</f>
+        <v>1990143</v>
       </c>
       <c r="H288" s="2" t="str">
-        <f>CONCATENATE(H$1,LEFT('1995'!B143,3))</f>
-        <v>1995142</v>
+        <f>CONCATENATE(H$1,LEFT('1995'!B144,3))</f>
+        <v>1995143</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>1691</v>
@@ -22800,12 +22800,12 @@
         <v>1985104</v>
       </c>
       <c r="G289" s="2" t="str">
-        <f>CONCATENATE(G$1,LEFT('1990'!B144,3))</f>
-        <v>1990143</v>
+        <f>CONCATENATE(G$1,LEFT('1990'!B145,3))</f>
+        <v>1990144</v>
       </c>
       <c r="H289" s="2" t="str">
-        <f>CONCATENATE(H$1,LEFT('1995'!B144,3))</f>
-        <v>1995143</v>
+        <f>CONCATENATE(H$1,LEFT('1995'!B145,3))</f>
+        <v>1995144</v>
       </c>
       <c r="I289" s="2" t="str">
         <f>CONCATENATE(I$1,LEFT('2000'!B276,3))</f>
@@ -23709,9 +23709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -24576,13 +24574,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1">
-      <c r="A62" s="1">
+      <c r="A62" s="12">
         <v>890</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="12">
         <v>1985000000</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -24590,13 +24588,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1">
-      <c r="A63" s="1">
+      <c r="A63" s="12">
         <v>900</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="12">
         <v>1985000000</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -24604,13 +24602,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1">
-      <c r="A64" s="1">
+      <c r="A64" s="12">
         <v>920</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="12">
         <v>1985000000</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -24618,13 +24616,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1">
-      <c r="A65" s="1">
+      <c r="A65" s="12">
         <v>930</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="12">
         <v>1985000000</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -24632,13 +24630,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1">
-      <c r="A66" s="1">
+      <c r="A66" s="12">
         <v>950</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="12">
         <v>1985000000</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -24646,13 +24644,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1">
-      <c r="A67" s="1">
+      <c r="A67" s="12">
         <v>960</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="12">
         <v>1985000000</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -26665,7 +26663,7 @@
       <c r="A211" s="4">
         <v>2730</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="12" t="s">
         <v>214</v>
       </c>
       <c r="C211" s="4">
@@ -26679,7 +26677,7 @@
       <c r="A212" s="4">
         <v>2740</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C212" s="4">
@@ -26693,7 +26691,7 @@
       <c r="A213" s="4">
         <v>2750</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="12" t="s">
         <v>216</v>
       </c>
       <c r="C213" s="4">
@@ -26707,7 +26705,7 @@
       <c r="A214" s="4">
         <v>2760</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C214" s="4">
@@ -26721,7 +26719,7 @@
       <c r="A215" s="4">
         <v>2770</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="12" t="s">
         <v>218</v>
       </c>
       <c r="C215" s="4">
@@ -26735,7 +26733,7 @@
       <c r="A216" s="4">
         <v>2780</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C216" s="4">
@@ -26749,7 +26747,7 @@
       <c r="A217" s="4">
         <v>2790</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="12" t="s">
         <v>220</v>
       </c>
       <c r="C217" s="4">
@@ -26763,7 +26761,7 @@
       <c r="A218" s="4">
         <v>2800</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="12" t="s">
         <v>221</v>
       </c>
       <c r="C218" s="4">
@@ -26777,7 +26775,7 @@
       <c r="A219" s="4">
         <v>2810</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="12" t="s">
         <v>222</v>
       </c>
       <c r="C219" s="4">
@@ -26791,7 +26789,7 @@
       <c r="A220" s="4">
         <v>2820</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C220" s="4">
@@ -26805,7 +26803,7 @@
       <c r="A221" s="4">
         <v>2830</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C221" s="4">
@@ -26819,7 +26817,7 @@
       <c r="A222" s="4">
         <v>2840</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="12" t="s">
         <v>225</v>
       </c>
       <c r="C222" s="4">
@@ -26833,7 +26831,7 @@
       <c r="A223" s="4">
         <v>2850</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C223" s="4">
@@ -26847,7 +26845,7 @@
       <c r="A224" s="4">
         <v>2860</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C224" s="4">
@@ -27847,7 +27845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D295"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -28670,13 +28668,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1">
-      <c r="A59" s="1">
+      <c r="A59" s="12">
         <v>870</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="12">
         <v>1990000000</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -28684,13 +28682,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1">
-      <c r="A60" s="1">
+      <c r="A60" s="12">
         <v>880</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="12">
         <v>1990000000</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -28698,13 +28696,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1">
-      <c r="A61" s="1">
+      <c r="A61" s="12">
         <v>900</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="12">
         <v>1990000000</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -28712,13 +28710,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1">
-      <c r="A62" s="1">
+      <c r="A62" s="12">
         <v>910</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="12">
         <v>1990000000</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -28726,13 +28724,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1">
-      <c r="A63" s="1">
+      <c r="A63" s="12">
         <v>930</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="12">
         <v>1990000000</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -28740,13 +28738,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1">
-      <c r="A64" s="1">
+      <c r="A64" s="12">
         <v>940</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="12">
         <v>1990000000</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -32820,13 +32818,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1">
-      <c r="A59" s="1">
+      <c r="A59" s="12">
         <v>870</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="12">
         <v>1995000000</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -32834,13 +32832,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1">
-      <c r="A60" s="1">
+      <c r="A60" s="12">
         <v>880</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="12">
         <v>1995000000</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -32848,13 +32846,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1">
-      <c r="A61" s="1">
+      <c r="A61" s="12">
         <v>900</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="12">
         <v>1995000000</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -32862,13 +32860,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1">
-      <c r="A62" s="1">
+      <c r="A62" s="12">
         <v>910</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="12">
         <v>1995000000</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -32876,13 +32874,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1">
-      <c r="A63" s="1">
+      <c r="A63" s="12">
         <v>930</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="12">
         <v>1995000000</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -32890,13 +32888,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1">
-      <c r="A64" s="1">
+      <c r="A64" s="12">
         <v>940</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="12">
         <v>1995000000</v>
       </c>
       <c r="D64" s="1" t="s">

--- a/basic/data/OccupationalCrosswalk1985-2005V02.xlsx
+++ b/basic/data/OccupationalCrosswalk1985-2005V02.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5554" uniqueCount="2563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5589" uniqueCount="2578">
   <si>
     <t>cat03_code</t>
   </si>
@@ -8614,11 +8614,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tutors, athletes and NEC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Artists, designers, photographers</t>
+    <t>MainTitleLabel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPECIALIST/TECHNICAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MANAGERIAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLERICAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SALES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERVICES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PROTECTIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG F &amp; F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRANSPORT &amp; COMM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAN., OPERATORS, LABORERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubTitleLabel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubTitle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OPERATORS/ELECTRICITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MINING, CONSTRUCTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORKERS NEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arts, design, photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tutors, athletes NEC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9078,10 +9138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P307"/>
+  <dimension ref="A1:S307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9092,15 +9152,15 @@
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="43.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="26.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="12" max="15" width="15.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="26.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="27.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="43.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>2136</v>
       </c>
@@ -9138,19 +9198,28 @@
         <v>2137</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>2138</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>2504</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>2139</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>2497</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1">
+    <row r="2" spans="1:19" s="8" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9194,19 +9263,28 @@
         <v>2140</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>2141</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>2507</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>1546</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>2499</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9246,14 +9324,14 @@
       <c r="K3" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>2498</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9294,20 +9372,23 @@
         <v>1553</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>2142</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>2508</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>2502</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="9" customFormat="1">
+    <row r="5" spans="1:19" s="9" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9350,14 +9431,17 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>2222</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9393,14 +9477,14 @@
       <c r="K6" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>2228</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9440,14 +9524,14 @@
       <c r="K7" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9484,14 +9568,14 @@
         <f>CONCATENATE(J$1,"00",LEFT('2005'!B7))</f>
         <v>2005006</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9531,14 +9615,14 @@
       <c r="K9" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9578,14 +9662,14 @@
       <c r="K10" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9625,14 +9709,14 @@
       <c r="K11" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9672,14 +9756,14 @@
       <c r="K12" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>2503</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9715,14 +9799,14 @@
       <c r="K13" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>2229</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="6" customFormat="1">
+    <row r="14" spans="1:19" s="6" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9762,14 +9846,14 @@
       <c r="K14" s="6" t="s">
         <v>1572</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>1571</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>2249</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="9" customFormat="1">
+    <row r="15" spans="1:19" s="9" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9809,20 +9893,20 @@
       <c r="K15" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>2143</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>2509</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:19">
       <c r="A16" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9862,14 +9946,14 @@
       <c r="K16" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>2226</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:19">
       <c r="A17" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9909,14 +9993,14 @@
       <c r="K17" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>2227</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:19">
       <c r="A18" s="8" t="s">
         <v>2213</v>
       </c>
@@ -9956,14 +10040,14 @@
       <c r="K18" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>2231</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:19">
       <c r="A19" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10003,14 +10087,14 @@
       <c r="K19" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>2232</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10050,14 +10134,14 @@
       <c r="K20" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>2233</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:19">
       <c r="A21" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10097,14 +10181,14 @@
       <c r="K21" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>2234</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:19">
       <c r="A22" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10144,14 +10228,14 @@
       <c r="K22" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>2239</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:19">
       <c r="A23" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10191,14 +10275,14 @@
       <c r="K23" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>2235</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:19">
       <c r="A24" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10238,14 +10322,14 @@
       <c r="K24" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>2236</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:19">
       <c r="A25" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10285,14 +10369,14 @@
       <c r="K25" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>2237</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:19">
       <c r="A26" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10332,14 +10416,14 @@
       <c r="K26" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>2238</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:19">
       <c r="A27" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10379,14 +10463,14 @@
       <c r="K27" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>2230</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="6" customFormat="1">
+    <row r="28" spans="1:19" s="6" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10426,14 +10510,14 @@
       <c r="K28" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="R28" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="S28" s="6" t="s">
         <v>2248</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="9" customFormat="1">
+    <row r="29" spans="1:19" s="9" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10473,20 +10557,20 @@
       <c r="K29" s="9" t="s">
         <v>1606</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="P29" s="9" t="s">
         <v>2144</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="Q29" s="9" t="s">
         <v>2510</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="R29" s="9" t="s">
         <v>1606</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="S29" s="9" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="6" customFormat="1">
+    <row r="30" spans="1:19" s="6" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10526,14 +10610,14 @@
       <c r="K30" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>1607</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="S30" s="6" t="s">
         <v>2240</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="9" customFormat="1">
+    <row r="31" spans="1:19" s="9" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10573,20 +10657,20 @@
       <c r="K31" s="9" t="s">
         <v>1665</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="P31" s="9" t="s">
         <v>2145</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="Q31" s="9" t="s">
         <v>2511</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="R31" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="S31" s="9" t="s">
         <v>2253</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:19">
       <c r="A32" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10623,14 +10707,14 @@
       <c r="K32" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="6" customFormat="1">
+    <row r="33" spans="1:19" s="6" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10670,14 +10754,14 @@
       <c r="K33" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="R33" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="S33" s="6" t="s">
         <v>2254</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="9" customFormat="1">
+    <row r="34" spans="1:19" s="9" customFormat="1">
       <c r="A34" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10717,20 +10801,20 @@
       <c r="K34" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="P34" s="9" t="s">
         <v>2146</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="Q34" s="9" t="s">
         <v>2512</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="R34" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="P34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:19">
       <c r="A35" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10767,14 +10851,14 @@
       <c r="K35" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="S35" s="2" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="6" customFormat="1">
+    <row r="36" spans="1:19" s="6" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10811,14 +10895,14 @@
       <c r="K36" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="R36" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="9" customFormat="1">
+    <row r="37" spans="1:19" s="9" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10858,20 +10942,20 @@
       <c r="K37" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="P37" s="9" t="s">
         <v>2147</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="Q37" s="9" t="s">
         <v>2513</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="R37" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="S37" s="9" t="s">
         <v>2244</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:19">
       <c r="A38" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10911,14 +10995,14 @@
       <c r="K38" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="R38" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="S38" s="2" t="s">
         <v>2241</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:19">
       <c r="A39" s="8" t="s">
         <v>2213</v>
       </c>
@@ -10958,14 +11042,14 @@
       <c r="K39" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="S39" s="2" t="s">
         <v>2246</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:19">
       <c r="A40" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11005,14 +11089,14 @@
       <c r="K40" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="S40" s="2" t="s">
         <v>2245</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:19">
       <c r="A41" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11052,14 +11136,14 @@
       <c r="K41" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="S41" s="2" t="s">
         <v>2243</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:19">
       <c r="A42" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11099,14 +11183,14 @@
       <c r="K42" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="S42" s="2" t="s">
         <v>2242</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="6" customFormat="1">
+    <row r="43" spans="1:19" s="6" customFormat="1">
       <c r="A43" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11146,14 +11230,14 @@
       <c r="K43" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="R43" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="S43" s="6" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="9" customFormat="1">
+    <row r="44" spans="1:19" s="9" customFormat="1">
       <c r="A44" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11193,20 +11277,20 @@
       <c r="K44" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="P44" s="9" t="s">
         <v>2148</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="Q44" s="9" t="s">
         <v>2514</v>
       </c>
-      <c r="O44" s="9" t="s">
+      <c r="R44" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="P44" s="9" t="s">
+      <c r="S44" s="9" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="9" customFormat="1">
+    <row r="45" spans="1:19" s="9" customFormat="1">
       <c r="A45" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11246,20 +11330,20 @@
       <c r="K45" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="P45" s="9" t="s">
         <v>2149</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="Q45" s="9" t="s">
         <v>2515</v>
       </c>
-      <c r="O45" s="9" t="s">
+      <c r="R45" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="P45" s="9" t="s">
+      <c r="S45" s="9" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:19">
       <c r="A46" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11299,14 +11383,14 @@
       <c r="K46" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="R46" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="S46" s="2" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="9" customFormat="1">
+    <row r="47" spans="1:19" s="9" customFormat="1">
       <c r="A47" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11346,20 +11430,20 @@
       <c r="K47" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="M47" s="9" t="s">
+      <c r="P47" s="9" t="s">
         <v>2150</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>2562</v>
-      </c>
-      <c r="O47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
+        <v>2576</v>
+      </c>
+      <c r="R47" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="S47" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:19">
       <c r="A48" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11399,14 +11483,14 @@
       <c r="K48" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="R48" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="P48" s="9" t="s">
+      <c r="S48" s="9" t="s">
         <v>2264</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:19">
       <c r="A49" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11446,14 +11530,14 @@
       <c r="K49" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="S49" s="9" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="9" customFormat="1">
+    <row r="50" spans="1:19" s="9" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11493,20 +11577,20 @@
       <c r="K50" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="P50" s="9" t="s">
         <v>2151</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="Q50" s="9" t="s">
         <v>2516</v>
       </c>
-      <c r="O50" s="9" t="s">
+      <c r="R50" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="P50" s="9" t="s">
+      <c r="S50" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:19">
       <c r="A51" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11546,14 +11630,14 @@
       <c r="K51" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="R51" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="S51" s="2" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:19">
       <c r="A52" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11593,14 +11677,14 @@
       <c r="K52" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="R52" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="S52" s="2" t="s">
         <v>2259</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:19">
       <c r="A53" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11640,14 +11724,14 @@
       <c r="K53" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="R53" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="S53" s="2" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="9" customFormat="1">
+    <row r="54" spans="1:19" s="9" customFormat="1">
       <c r="A54" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11687,20 +11771,20 @@
       <c r="K54" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="P54" s="9" t="s">
         <v>2152</v>
       </c>
-      <c r="N54" s="9" t="s">
-        <v>2561</v>
-      </c>
-      <c r="O54" s="9" t="s">
+      <c r="Q54" s="9" t="s">
+        <v>2577</v>
+      </c>
+      <c r="R54" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="P54" s="9" t="s">
+      <c r="S54" s="9" t="s">
         <v>2250</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:19">
       <c r="A55" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11740,14 +11824,14 @@
       <c r="K55" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="R55" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="S55" s="2" t="s">
         <v>2251</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:19">
       <c r="A56" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11787,14 +11871,14 @@
       <c r="K56" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="S56" s="2" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:19">
       <c r="A57" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11834,14 +11918,14 @@
       <c r="K57" s="2" t="s">
         <v>1677</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="R57" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="S57" s="2" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="6" customFormat="1">
+    <row r="58" spans="1:19" s="6" customFormat="1">
       <c r="A58" s="8" t="s">
         <v>2213</v>
       </c>
@@ -11881,14 +11965,14 @@
       <c r="K58" s="6" t="s">
         <v>1676</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="R58" s="6" t="s">
         <v>1676</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="S58" s="6" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="8" customFormat="1">
+    <row r="59" spans="1:19" s="8" customFormat="1">
       <c r="A59" s="8" t="s">
         <v>2214</v>
       </c>
@@ -11932,19 +12016,28 @@
         <v>2153</v>
       </c>
       <c r="M59" s="8" t="s">
+        <v>2563</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>2153</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>2563</v>
+      </c>
+      <c r="P59" s="8" t="s">
         <v>2154</v>
       </c>
-      <c r="N59" s="8" t="s">
+      <c r="Q59" s="8" t="s">
         <v>2505</v>
       </c>
-      <c r="O59" s="8" t="s">
+      <c r="R59" s="8" t="s">
         <v>1684</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="S59" s="8" t="s">
         <v>2505</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="9" customFormat="1">
+    <row r="60" spans="1:19" s="9" customFormat="1">
       <c r="A60" s="8" t="s">
         <v>2214</v>
       </c>
@@ -11984,20 +12077,20 @@
       <c r="K60" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="P60" s="9" t="s">
         <v>2155</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="Q60" s="9" t="s">
         <v>2517</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="R60" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="S60" s="9" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:19">
       <c r="A61" s="8" t="s">
         <v>2214</v>
       </c>
@@ -12037,14 +12130,14 @@
       <c r="K61" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="R61" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="S61" s="2" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="9" customFormat="1">
+    <row r="62" spans="1:19" s="9" customFormat="1">
       <c r="A62" s="8" t="s">
         <v>2214</v>
       </c>
@@ -12084,20 +12177,20 @@
       <c r="K62" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="M62" s="9" t="s">
+      <c r="P62" s="9" t="s">
         <v>2156</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="Q62" s="9" t="s">
         <v>2518</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="R62" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="S62" s="9" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:19">
       <c r="A63" s="8" t="s">
         <v>2214</v>
       </c>
@@ -12133,11 +12226,11 @@
       <c r="K63" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="S63" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:19">
       <c r="A64" s="8" t="s">
         <v>2214</v>
       </c>
@@ -12173,11 +12266,11 @@
       <c r="K64" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="S64" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="6" customFormat="1">
+    <row r="65" spans="1:19" s="6" customFormat="1">
       <c r="A65" s="8" t="s">
         <v>2214</v>
       </c>
@@ -12217,14 +12310,14 @@
       <c r="K65" s="6" t="s">
         <v>1689</v>
       </c>
-      <c r="O65" s="6" t="s">
+      <c r="R65" s="6" t="s">
         <v>1690</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="S65" s="6" t="s">
         <v>2273</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="8" customFormat="1">
+    <row r="66" spans="1:19" s="8" customFormat="1">
       <c r="A66" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12268,19 +12361,28 @@
         <v>2157</v>
       </c>
       <c r="M66" s="8" t="s">
+        <v>2564</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>2157</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>2564</v>
+      </c>
+      <c r="P66" s="8" t="s">
         <v>2158</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="Q66" s="8" t="s">
         <v>1703</v>
       </c>
-      <c r="O66" s="8" t="s">
+      <c r="R66" s="8" t="s">
         <v>1703</v>
       </c>
-      <c r="P66" s="8" t="s">
+      <c r="S66" s="8" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:19">
       <c r="A67" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12320,14 +12422,14 @@
       <c r="K67" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="R67" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="S67" s="2" t="s">
         <v>2275</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="9" customFormat="1">
+    <row r="68" spans="1:19" s="9" customFormat="1">
       <c r="A68" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12367,20 +12469,20 @@
       <c r="K68" s="9" t="s">
         <v>1705</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="P68" s="9" t="s">
         <v>2159</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="Q68" s="9" t="s">
         <v>2519</v>
       </c>
-      <c r="O68" s="9" t="s">
+      <c r="R68" s="9" t="s">
         <v>1705</v>
       </c>
-      <c r="P68" s="9" t="s">
+      <c r="S68" s="9" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="6" customFormat="1">
+    <row r="69" spans="1:19" s="6" customFormat="1">
       <c r="A69" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12420,14 +12522,14 @@
       <c r="K69" s="6" t="s">
         <v>1706</v>
       </c>
-      <c r="O69" s="6" t="s">
+      <c r="R69" s="6" t="s">
         <v>1706</v>
       </c>
-      <c r="P69" s="6" t="s">
+      <c r="S69" s="6" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="9" customFormat="1">
+    <row r="70" spans="1:19" s="9" customFormat="1">
       <c r="A70" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12467,20 +12569,20 @@
       <c r="K70" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="M70" s="9" t="s">
+      <c r="P70" s="9" t="s">
         <v>2506</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="Q70" s="9" t="s">
         <v>2520</v>
       </c>
-      <c r="O70" s="9" t="s">
+      <c r="R70" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="P70" s="9" t="s">
+      <c r="S70" s="9" t="s">
         <v>2277</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:19">
       <c r="A71" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12520,14 +12622,14 @@
       <c r="K71" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="R71" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="S71" s="2" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="9" customFormat="1">
+    <row r="72" spans="1:19" s="9" customFormat="1">
       <c r="A72" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12567,20 +12669,20 @@
       <c r="K72" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="P72" s="9" t="s">
         <v>2160</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="Q72" s="9" t="s">
         <v>2521</v>
       </c>
-      <c r="O72" s="9" t="s">
+      <c r="R72" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="P72" s="9" t="s">
+      <c r="S72" s="9" t="s">
         <v>2280</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:19">
       <c r="A73" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12620,14 +12722,14 @@
       <c r="K73" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="R73" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="S73" s="2" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:19">
       <c r="A74" s="8" t="s">
         <v>2215</v>
       </c>
@@ -12667,14 +12769,14 @@
       <c r="K74" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="R74" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="S74" s="2" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="8" customFormat="1">
+    <row r="75" spans="1:19" s="8" customFormat="1">
       <c r="A75" s="8" t="s">
         <v>2216</v>
       </c>
@@ -12718,19 +12820,28 @@
         <v>2161</v>
       </c>
       <c r="M75" s="8" t="s">
+        <v>2565</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>2565</v>
+      </c>
+      <c r="P75" s="8" t="s">
         <v>2162</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="Q75" s="8" t="s">
         <v>2522</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="R75" s="8" t="s">
         <v>1718</v>
       </c>
-      <c r="P75" s="8" t="s">
+      <c r="S75" s="8" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:19">
       <c r="A76" s="8" t="s">
         <v>2216</v>
       </c>
@@ -12770,14 +12881,14 @@
       <c r="K76" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="R76" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="S76" s="2" t="s">
         <v>2284</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:19">
       <c r="A77" s="8" t="s">
         <v>2216</v>
       </c>
@@ -12817,14 +12928,14 @@
       <c r="K77" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="R77" s="2" t="s">
         <v>2285</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="S77" s="2" t="s">
         <v>2308</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:19">
       <c r="A78" s="8" t="s">
         <v>2216</v>
       </c>
@@ -12864,14 +12975,14 @@
       <c r="K78" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="R78" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="S78" s="2" t="s">
         <v>2286</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:19">
       <c r="A79" s="8" t="s">
         <v>2216</v>
       </c>
@@ -12911,14 +13022,14 @@
       <c r="K79" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="S79" s="2" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:19">
       <c r="A80" s="8" t="s">
         <v>2216</v>
       </c>
@@ -12958,14 +13069,14 @@
       <c r="K80" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="R80" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="P80" s="2" t="s">
+      <c r="S80" s="2" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:19">
       <c r="A81" s="8" t="s">
         <v>2216</v>
       </c>
@@ -13005,14 +13116,14 @@
       <c r="K81" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="R81" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="P81" s="2" t="s">
+      <c r="S81" s="2" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:19">
       <c r="A82" s="8" t="s">
         <v>2216</v>
       </c>
@@ -13052,14 +13163,14 @@
       <c r="K82" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="R82" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="P82" s="2" t="s">
+      <c r="S82" s="2" t="s">
         <v>2287</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="9" customFormat="1">
+    <row r="83" spans="1:19" s="9" customFormat="1">
       <c r="A83" s="8" t="s">
         <v>2216</v>
       </c>
@@ -13099,20 +13210,20 @@
       <c r="K83" s="9" t="s">
         <v>1734</v>
       </c>
-      <c r="M83" s="9" t="s">
+      <c r="P83" s="9" t="s">
         <v>2163</v>
       </c>
-      <c r="N83" s="9" t="s">
+      <c r="Q83" s="9" t="s">
         <v>2523</v>
       </c>
-      <c r="O83" s="9" t="s">
+      <c r="R83" s="9" t="s">
         <v>1734</v>
       </c>
-      <c r="P83" s="9" t="s">
+      <c r="S83" s="9" t="s">
         <v>2288</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:19">
       <c r="A84" s="8" t="s">
         <v>2216</v>
       </c>
@@ -13152,14 +13263,14 @@
       <c r="K84" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="R84" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="P84" s="2" t="s">
+      <c r="S84" s="2" t="s">
         <v>2289</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:19">
       <c r="A85" s="8" t="s">
         <v>2216</v>
       </c>
@@ -13195,14 +13306,14 @@
       <c r="J85" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="R85" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="S85" s="2" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:19">
       <c r="A86" s="8" t="s">
         <v>2216</v>
       </c>
@@ -13242,14 +13353,14 @@
       <c r="K86" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="R86" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="P86" s="2" t="s">
+      <c r="S86" s="2" t="s">
         <v>2291</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="6" customFormat="1">
+    <row r="87" spans="1:19" s="6" customFormat="1">
       <c r="A87" s="8" t="s">
         <v>2216</v>
       </c>
@@ -13289,14 +13400,14 @@
       <c r="K87" s="6" t="s">
         <v>1738</v>
       </c>
-      <c r="O87" s="6" t="s">
+      <c r="R87" s="6" t="s">
         <v>1738</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="S87" s="6" t="s">
         <v>2292</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="8" customFormat="1">
+    <row r="88" spans="1:19" s="8" customFormat="1">
       <c r="A88" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13340,19 +13451,28 @@
         <v>2164</v>
       </c>
       <c r="M88" s="8" t="s">
+        <v>2566</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>2164</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>2566</v>
+      </c>
+      <c r="P88" s="8" t="s">
         <v>2165</v>
       </c>
-      <c r="N88" s="8" t="s">
+      <c r="Q88" s="8" t="s">
         <v>2524</v>
       </c>
-      <c r="O88" s="8" t="s">
+      <c r="R88" s="8" t="s">
         <v>1739</v>
       </c>
-      <c r="P88" s="8" t="s">
+      <c r="S88" s="8" t="s">
         <v>2293</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:19">
       <c r="A89" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13392,14 +13512,14 @@
       <c r="K89" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="O89" s="2" t="s">
+      <c r="R89" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="P89" s="2" t="s">
+      <c r="S89" s="2" t="s">
         <v>2294</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="6" customFormat="1">
+    <row r="90" spans="1:19" s="6" customFormat="1">
       <c r="A90" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13439,14 +13559,14 @@
       <c r="K90" s="6" t="s">
         <v>1743</v>
       </c>
-      <c r="O90" s="6" t="s">
+      <c r="R90" s="6" t="s">
         <v>1743</v>
       </c>
-      <c r="P90" s="6" t="s">
+      <c r="S90" s="6" t="s">
         <v>2295</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="9" customFormat="1">
+    <row r="91" spans="1:19" s="9" customFormat="1">
       <c r="A91" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13486,20 +13606,20 @@
       <c r="K91" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="M91" s="9" t="s">
+      <c r="P91" s="9" t="s">
         <v>2166</v>
       </c>
-      <c r="N91" s="9" t="s">
+      <c r="Q91" s="9" t="s">
         <v>2525</v>
       </c>
-      <c r="O91" s="9" t="s">
+      <c r="R91" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="P91" s="9" t="s">
+      <c r="S91" s="9" t="s">
         <v>2296</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:19">
       <c r="A92" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13539,14 +13659,14 @@
       <c r="K92" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="O92" s="2" t="s">
+      <c r="R92" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="P92" s="2" t="s">
+      <c r="S92" s="2" t="s">
         <v>2297</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:19">
       <c r="A93" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13586,14 +13706,14 @@
       <c r="K93" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="O93" s="2" t="s">
+      <c r="R93" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="P93" s="2" t="s">
+      <c r="S93" s="2" t="s">
         <v>2298</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:19">
       <c r="A94" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13633,14 +13753,14 @@
       <c r="K94" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="O94" s="2" t="s">
+      <c r="R94" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="P94" s="2" t="s">
+      <c r="S94" s="2" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="9" customFormat="1">
+    <row r="95" spans="1:19" s="9" customFormat="1">
       <c r="A95" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13680,20 +13800,20 @@
       <c r="K95" s="9" t="s">
         <v>1754</v>
       </c>
-      <c r="M95" s="9" t="s">
+      <c r="P95" s="9" t="s">
         <v>2167</v>
       </c>
-      <c r="N95" s="9" t="s">
+      <c r="Q95" s="9" t="s">
         <v>2526</v>
       </c>
-      <c r="O95" s="9" t="s">
+      <c r="R95" s="9" t="s">
         <v>1754</v>
       </c>
-      <c r="P95" s="9" t="s">
+      <c r="S95" s="9" t="s">
         <v>2299</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:19">
       <c r="A96" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13733,14 +13853,14 @@
       <c r="K96" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="R96" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="P96" s="2" t="s">
+      <c r="S96" s="2" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="9" customFormat="1">
+    <row r="97" spans="1:19" s="9" customFormat="1">
       <c r="A97" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13780,20 +13900,20 @@
       <c r="K97" s="9" t="s">
         <v>1763</v>
       </c>
-      <c r="M97" s="9" t="s">
+      <c r="P97" s="9" t="s">
         <v>2168</v>
       </c>
-      <c r="N97" s="9" t="s">
+      <c r="Q97" s="9" t="s">
         <v>2527</v>
       </c>
-      <c r="O97" s="9" t="s">
+      <c r="R97" s="9" t="s">
         <v>1763</v>
       </c>
-      <c r="P97" s="9" t="s">
+      <c r="S97" s="9" t="s">
         <v>2312</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:19">
       <c r="A98" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13833,14 +13953,14 @@
       <c r="K98" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="O98" s="2" t="s">
+      <c r="R98" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="P98" s="2" t="s">
+      <c r="S98" s="2" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:19">
       <c r="A99" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13880,14 +14000,14 @@
       <c r="K99" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="O99" s="2" t="s">
+      <c r="R99" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="P99" s="2" t="s">
+      <c r="S99" s="2" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:19">
       <c r="A100" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13927,14 +14047,14 @@
       <c r="K100" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="O100" s="2" t="s">
+      <c r="R100" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="P100" s="2" t="s">
+      <c r="S100" s="2" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:19">
       <c r="A101" s="8" t="s">
         <v>2217</v>
       </c>
@@ -13967,14 +14087,14 @@
       <c r="J101" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="O101" s="2" t="s">
+      <c r="R101" s="2" t="s">
         <v>2210</v>
       </c>
-      <c r="P101" s="2" t="s">
+      <c r="S101" s="2" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:19">
       <c r="A102" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14014,14 +14134,14 @@
       <c r="K102" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="O102" s="2" t="s">
+      <c r="R102" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="P102" s="2" t="s">
+      <c r="S102" s="2" t="s">
         <v>2304</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="9" customFormat="1">
+    <row r="103" spans="1:19" s="9" customFormat="1">
       <c r="A103" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14061,20 +14181,20 @@
       <c r="K103" s="9" t="s">
         <v>1770</v>
       </c>
-      <c r="M103" s="9" t="s">
+      <c r="P103" s="9" t="s">
         <v>2169</v>
       </c>
-      <c r="N103" s="9" t="s">
+      <c r="Q103" s="9" t="s">
         <v>2528</v>
       </c>
-      <c r="O103" s="9" t="s">
+      <c r="R103" s="9" t="s">
         <v>1770</v>
       </c>
-      <c r="P103" s="9" t="s">
+      <c r="S103" s="9" t="s">
         <v>2313</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:19">
       <c r="A104" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14113,14 +14233,14 @@
       <c r="K104" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="O104" s="2" t="s">
+      <c r="R104" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="P104" s="2" t="s">
+      <c r="S104" s="2" t="s">
         <v>2314</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:19">
       <c r="A105" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14159,14 +14279,14 @@
       <c r="K105" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="O105" s="2" t="s">
+      <c r="R105" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="P105" s="2" t="s">
+      <c r="S105" s="2" t="s">
         <v>2315</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="9" customFormat="1">
+    <row r="106" spans="1:19" s="9" customFormat="1">
       <c r="A106" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14205,20 +14325,20 @@
       <c r="K106" s="9" t="s">
         <v>1775</v>
       </c>
-      <c r="M106" s="9" t="s">
+      <c r="P106" s="9" t="s">
         <v>2170</v>
       </c>
-      <c r="N106" s="9" t="s">
+      <c r="Q106" s="9" t="s">
         <v>2529</v>
       </c>
-      <c r="O106" s="9" t="s">
+      <c r="R106" s="9" t="s">
         <v>1775</v>
       </c>
-      <c r="P106" s="9" t="s">
+      <c r="S106" s="9" t="s">
         <v>2316</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:19">
       <c r="A107" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14258,14 +14378,14 @@
       <c r="K107" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="O107" s="2" t="s">
+      <c r="R107" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="P107" s="2" t="s">
+      <c r="S107" s="2" t="s">
         <v>2317</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:19">
       <c r="A108" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14299,14 +14419,14 @@
         <f>CONCATENATE(J$1,LEFT('2005'!B103,3))</f>
         <v>2005102</v>
       </c>
-      <c r="O108" s="2" t="s">
+      <c r="R108" s="2" t="s">
         <v>2319</v>
       </c>
-      <c r="P108" s="2" t="s">
+      <c r="S108" s="2" t="s">
         <v>2318</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:19">
       <c r="A109" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14346,14 +14466,14 @@
       <c r="K109" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="O109" s="2" t="s">
+      <c r="R109" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="P109" s="2" t="s">
+      <c r="S109" s="2" t="s">
         <v>2320</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:19">
       <c r="A110" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14390,14 +14510,14 @@
       <c r="K110" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="O110" s="2" t="s">
+      <c r="R110" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="P110" s="2" t="s">
+      <c r="S110" s="2" t="s">
         <v>2321</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:19">
       <c r="A111" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14434,14 +14554,14 @@
       <c r="K111" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="O111" s="2" t="s">
+      <c r="R111" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="P111" s="2" t="s">
+      <c r="S111" s="2" t="s">
         <v>2322</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:19">
       <c r="A112" s="8" t="s">
         <v>2217</v>
       </c>
@@ -14481,14 +14601,14 @@
       <c r="K112" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="O112" s="2" t="s">
+      <c r="R112" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="P112" s="2" t="s">
+      <c r="S112" s="2" t="s">
         <v>2323</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="8" customFormat="1">
+    <row r="113" spans="1:19" s="8" customFormat="1">
       <c r="A113" s="8" t="s">
         <v>2218</v>
       </c>
@@ -14532,19 +14652,28 @@
         <v>2171</v>
       </c>
       <c r="M113" s="8" t="s">
+        <v>2567</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>2171</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>2567</v>
+      </c>
+      <c r="P113" s="8" t="s">
         <v>2172</v>
       </c>
-      <c r="N113" s="8" t="s">
+      <c r="Q113" s="8" t="s">
         <v>2530</v>
       </c>
-      <c r="O113" s="8" t="s">
+      <c r="R113" s="8" t="s">
         <v>1786</v>
       </c>
-      <c r="P113" s="8" t="s">
+      <c r="S113" s="8" t="s">
         <v>2324</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:19">
       <c r="A114" s="8" t="s">
         <v>2218</v>
       </c>
@@ -14584,14 +14713,14 @@
       <c r="K114" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="O114" s="2" t="s">
+      <c r="R114" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="P114" s="2" t="s">
+      <c r="S114" s="2" t="s">
         <v>2325</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:19">
       <c r="A115" s="8" t="s">
         <v>2218</v>
       </c>
@@ -14631,14 +14760,14 @@
       <c r="K115" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="O115" s="2" t="s">
+      <c r="R115" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="P115" s="2" t="s">
+      <c r="S115" s="2" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:19">
       <c r="A116" s="8" t="s">
         <v>2218</v>
       </c>
@@ -14678,14 +14807,14 @@
       <c r="K116" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="O116" s="2" t="s">
+      <c r="R116" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="P116" s="2" t="s">
+      <c r="S116" s="2" t="s">
         <v>2327</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:19">
       <c r="A117" s="8" t="s">
         <v>2218</v>
       </c>
@@ -14721,11 +14850,11 @@
         <f>CONCATENATE(J$1,LEFT('2005'!B112,3))</f>
         <v>2005111</v>
       </c>
-      <c r="P117" s="2" t="s">
+      <c r="S117" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:19">
       <c r="A118" s="8" t="s">
         <v>2218</v>
       </c>
@@ -14765,14 +14894,14 @@
       <c r="K118" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="O118" s="2" t="s">
+      <c r="R118" s="2" t="s">
         <v>2328</v>
       </c>
-      <c r="P118" s="2" t="s">
+      <c r="S118" s="2" t="s">
         <v>2329</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="8" customFormat="1">
+    <row r="119" spans="1:19" s="8" customFormat="1">
       <c r="A119" s="8" t="s">
         <v>2219</v>
       </c>
@@ -14816,19 +14945,28 @@
         <v>2173</v>
       </c>
       <c r="M119" s="8" t="s">
+        <v>2568</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>2568</v>
+      </c>
+      <c r="P119" s="8" t="s">
         <v>2174</v>
       </c>
-      <c r="N119" s="8" t="s">
+      <c r="Q119" s="8" t="s">
         <v>2531</v>
       </c>
-      <c r="O119" s="8" t="s">
+      <c r="R119" s="8" t="s">
         <v>1796</v>
       </c>
-      <c r="P119" s="8" t="s">
+      <c r="S119" s="8" t="s">
         <v>2330</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:19">
       <c r="A120" s="8" t="s">
         <v>2219</v>
       </c>
@@ -14868,14 +15006,14 @@
       <c r="K120" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="O120" s="2" t="s">
+      <c r="R120" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="P120" s="2" t="s">
+      <c r="S120" s="2" t="s">
         <v>2331</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:19">
       <c r="A121" s="8" t="s">
         <v>2219</v>
       </c>
@@ -14915,14 +15053,14 @@
       <c r="K121" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="O121" s="2" t="s">
+      <c r="R121" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="P121" s="2" t="s">
+      <c r="S121" s="2" t="s">
         <v>2332</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:19">
       <c r="A122" s="8" t="s">
         <v>2219</v>
       </c>
@@ -14962,14 +15100,14 @@
       <c r="K122" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="O122" s="2" t="s">
+      <c r="R122" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="P122" s="2" t="s">
+      <c r="S122" s="2" t="s">
         <v>2333</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="9" customFormat="1">
+    <row r="123" spans="1:19" s="9" customFormat="1">
       <c r="A123" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15009,20 +15147,20 @@
       <c r="K123" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="M123" s="9" t="s">
+      <c r="P123" s="9" t="s">
         <v>2175</v>
       </c>
-      <c r="N123" s="9" t="s">
+      <c r="Q123" s="9" t="s">
         <v>2532</v>
       </c>
-      <c r="O123" s="9" t="s">
+      <c r="R123" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="P123" s="9" t="s">
+      <c r="S123" s="9" t="s">
         <v>2334</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:19">
       <c r="A124" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15058,11 +15196,11 @@
       <c r="J124" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P124" s="2" t="s">
+      <c r="S124" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:19">
       <c r="A125" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15102,14 +15240,14 @@
       <c r="K125" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="O125" s="2" t="s">
+      <c r="R125" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="P125" s="2" t="s">
+      <c r="S125" s="2" t="s">
         <v>2335</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:19">
       <c r="A126" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15145,11 +15283,11 @@
       <c r="J126" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P126" s="2" t="s">
+      <c r="S126" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:19">
       <c r="A127" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15189,14 +15327,14 @@
       <c r="K127" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="O127" s="2" t="s">
+      <c r="R127" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="P127" s="2" t="s">
+      <c r="S127" s="2" t="s">
         <v>2341</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="9" customFormat="1">
+    <row r="128" spans="1:19" s="9" customFormat="1">
       <c r="A128" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15236,20 +15374,20 @@
       <c r="K128" s="9" t="s">
         <v>1815</v>
       </c>
-      <c r="M128" s="9" t="s">
+      <c r="P128" s="9" t="s">
         <v>2176</v>
       </c>
-      <c r="N128" s="9" t="s">
+      <c r="Q128" s="9" t="s">
         <v>1815</v>
       </c>
-      <c r="O128" s="9" t="s">
+      <c r="R128" s="9" t="s">
         <v>1815</v>
       </c>
-      <c r="P128" s="9" t="s">
+      <c r="S128" s="9" t="s">
         <v>2336</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:19">
       <c r="A129" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15289,14 +15427,14 @@
       <c r="K129" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="O129" s="2" t="s">
+      <c r="R129" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="P129" s="2" t="s">
+      <c r="S129" s="2" t="s">
         <v>2337</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:19">
       <c r="A130" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15336,14 +15474,14 @@
       <c r="K130" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="O130" s="2" t="s">
+      <c r="R130" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="P130" s="2" t="s">
+      <c r="S130" s="2" t="s">
         <v>2338</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:19">
       <c r="A131" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15383,14 +15521,14 @@
       <c r="K131" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="O131" s="2" t="s">
+      <c r="R131" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="P131" s="2" t="s">
+      <c r="S131" s="2" t="s">
         <v>2339</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:19">
       <c r="A132" s="8" t="s">
         <v>2219</v>
       </c>
@@ -15430,14 +15568,14 @@
       <c r="K132" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="O132" s="2" t="s">
+      <c r="R132" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="P132" s="2" t="s">
+      <c r="S132" s="2" t="s">
         <v>2340</v>
       </c>
     </row>
-    <row r="133" spans="1:16" s="8" customFormat="1">
+    <row r="133" spans="1:19" s="8" customFormat="1">
       <c r="A133" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15481,19 +15619,28 @@
         <v>2177</v>
       </c>
       <c r="M133" s="8" t="s">
+        <v>2569</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>2177</v>
+      </c>
+      <c r="O133" s="8" t="s">
+        <v>2569</v>
+      </c>
+      <c r="P133" s="8" t="s">
         <v>2178</v>
       </c>
-      <c r="N133" s="8" t="s">
+      <c r="Q133" s="8" t="s">
         <v>2533</v>
       </c>
-      <c r="O133" s="8" t="s">
+      <c r="R133" s="8" t="s">
         <v>1824</v>
       </c>
-      <c r="P133" s="8" t="s">
+      <c r="S133" s="8" t="s">
         <v>2342</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:19">
       <c r="A134" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15529,11 +15676,11 @@
       <c r="J134" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P134" s="2" t="s">
+      <c r="S134" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="135" spans="1:16" s="9" customFormat="1">
+    <row r="135" spans="1:19" s="9" customFormat="1">
       <c r="A135" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15573,20 +15720,20 @@
       <c r="K135" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="M135" s="9" t="s">
+      <c r="P135" s="9" t="s">
         <v>2179</v>
       </c>
-      <c r="N135" s="9" t="s">
+      <c r="Q135" s="9" t="s">
         <v>2534</v>
       </c>
-      <c r="O135" s="9" t="s">
+      <c r="R135" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="P135" s="9" t="s">
+      <c r="S135" s="9" t="s">
         <v>2343</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="9" customFormat="1">
+    <row r="136" spans="1:19" s="9" customFormat="1">
       <c r="A136" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15626,20 +15773,20 @@
       <c r="K136" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="M136" s="9" t="s">
+      <c r="P136" s="9" t="s">
         <v>2180</v>
       </c>
-      <c r="N136" s="9" t="s">
+      <c r="Q136" s="9" t="s">
         <v>2535</v>
       </c>
-      <c r="O136" s="9" t="s">
+      <c r="R136" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="P136" s="9" t="s">
+      <c r="S136" s="9" t="s">
         <v>2344</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:19">
       <c r="A137" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15679,14 +15826,14 @@
       <c r="K137" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="O137" s="2" t="s">
+      <c r="R137" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="P137" s="2" t="s">
+      <c r="S137" s="2" t="s">
         <v>2345</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:19">
       <c r="A138" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15726,14 +15873,14 @@
       <c r="K138" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="O138" s="2" t="s">
+      <c r="R138" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="P138" s="2" t="s">
+      <c r="S138" s="2" t="s">
         <v>2346</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="9" customFormat="1">
+    <row r="139" spans="1:19" s="9" customFormat="1">
       <c r="A139" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15773,20 +15920,20 @@
       <c r="K139" s="9" t="s">
         <v>1835</v>
       </c>
-      <c r="M139" s="9" t="s">
+      <c r="P139" s="9" t="s">
         <v>2181</v>
       </c>
-      <c r="N139" s="9" t="s">
+      <c r="Q139" s="9" t="s">
         <v>2536</v>
       </c>
-      <c r="O139" s="9" t="s">
+      <c r="R139" s="9" t="s">
         <v>1835</v>
       </c>
-      <c r="P139" s="9" t="s">
+      <c r="S139" s="9" t="s">
         <v>2347</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:19">
       <c r="A140" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15826,11 +15973,11 @@
         <f>'2000'!B135</f>
         <v>134鉄道輸送関連業務従事者</v>
       </c>
-      <c r="P140" s="2" t="s">
+      <c r="S140" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:19">
       <c r="A141" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15870,14 +16017,14 @@
       <c r="K141" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="O141" s="2" t="s">
+      <c r="R141" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="P141" s="2" t="s">
+      <c r="S141" s="2" t="s">
         <v>2348</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:19">
       <c r="A142" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15913,11 +16060,11 @@
       <c r="J142" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P142" s="2" t="s">
+      <c r="S142" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:19">
       <c r="A143" s="8" t="s">
         <v>2220</v>
       </c>
@@ -15953,14 +16100,14 @@
       <c r="K143" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="O143" s="2" t="s">
+      <c r="R143" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="P143" s="2" t="s">
+      <c r="S143" s="2" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:19">
       <c r="A144" s="8" t="s">
         <v>2220</v>
       </c>
@@ -16000,14 +16147,14 @@
       <c r="K144" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="O144" s="2" t="s">
+      <c r="R144" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="P144" s="2" t="s">
+      <c r="S144" s="2" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="9" customFormat="1">
+    <row r="145" spans="1:19" s="9" customFormat="1">
       <c r="A145" s="8" t="s">
         <v>2220</v>
       </c>
@@ -16047,20 +16194,20 @@
       <c r="K145" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="M145" s="9" t="s">
+      <c r="P145" s="9" t="s">
         <v>2182</v>
       </c>
-      <c r="N145" s="9" t="s">
+      <c r="Q145" s="9" t="s">
         <v>2351</v>
       </c>
-      <c r="O145" s="9" t="s">
+      <c r="R145" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="P145" s="9" t="s">
+      <c r="S145" s="9" t="s">
         <v>2351</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:19">
       <c r="A146" s="8" t="s">
         <v>2220</v>
       </c>
@@ -16096,11 +16243,11 @@
       <c r="J146" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P146" s="2" t="s">
+      <c r="S146" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:19">
       <c r="A147" s="8" t="s">
         <v>2220</v>
       </c>
@@ -16140,14 +16287,14 @@
       <c r="K147" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="O147" s="2" t="s">
+      <c r="R147" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="P147" s="2" t="s">
+      <c r="S147" s="2" t="s">
         <v>2352</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:19">
       <c r="A148" s="8" t="s">
         <v>2220</v>
       </c>
@@ -16187,14 +16334,14 @@
       <c r="K148" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="O148" s="2" t="s">
+      <c r="R148" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="P148" s="2" t="s">
+      <c r="S148" s="2" t="s">
         <v>2353</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:19">
       <c r="A149" s="8" t="s">
         <v>2220</v>
       </c>
@@ -16234,14 +16381,14 @@
       <c r="K149" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="O149" s="2" t="s">
+      <c r="R149" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="P149" s="2" t="s">
+      <c r="S149" s="2" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="8" customFormat="1">
+    <row r="150" spans="1:19" s="8" customFormat="1">
       <c r="A150" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16285,19 +16432,28 @@
         <v>2183</v>
       </c>
       <c r="M150" s="8" t="s">
+        <v>2570</v>
+      </c>
+      <c r="N150" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="O150" s="8" t="s">
+        <v>2570</v>
+      </c>
+      <c r="P150" s="8" t="s">
         <v>2184</v>
       </c>
-      <c r="N150" s="8" t="s">
+      <c r="Q150" s="8" t="s">
         <v>2537</v>
       </c>
-      <c r="O150" s="8" t="s">
+      <c r="R150" s="8" t="s">
         <v>1853</v>
       </c>
-      <c r="P150" s="8" t="s">
+      <c r="S150" s="8" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:19">
       <c r="A151" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16337,14 +16493,14 @@
       <c r="K151" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="O151" s="2" t="s">
+      <c r="R151" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="P151" s="2" t="s">
+      <c r="S151" s="2" t="s">
         <v>2356</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:19">
       <c r="A152" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16384,14 +16540,14 @@
       <c r="K152" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="O152" s="2" t="s">
+      <c r="R152" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="P152" s="2" t="s">
+      <c r="S152" s="2" t="s">
         <v>2357</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:19">
       <c r="A153" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16431,14 +16587,14 @@
       <c r="K153" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="O153" s="2" t="s">
+      <c r="R153" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="P153" s="2" t="s">
+      <c r="S153" s="2" t="s">
         <v>2358</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:19">
       <c r="A154" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16478,14 +16634,14 @@
       <c r="K154" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="O154" s="2" t="s">
+      <c r="R154" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="P154" s="2" t="s">
+      <c r="S154" s="2" t="s">
         <v>2359</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:19">
       <c r="A155" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16525,14 +16681,14 @@
       <c r="K155" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="O155" s="2" t="s">
+      <c r="R155" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="P155" s="2" t="s">
+      <c r="S155" s="2" t="s">
         <v>2360</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:19">
       <c r="A156" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16572,14 +16728,14 @@
       <c r="K156" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="O156" s="2" t="s">
+      <c r="R156" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="P156" s="2" t="s">
+      <c r="S156" s="2" t="s">
         <v>2361</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:19">
       <c r="A157" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16619,14 +16775,14 @@
       <c r="K157" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="O157" s="2" t="s">
+      <c r="R157" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="P157" s="2" t="s">
+      <c r="S157" s="2" t="s">
         <v>2362</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="9" customFormat="1">
+    <row r="158" spans="1:19" s="9" customFormat="1">
       <c r="A158" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16666,20 +16822,20 @@
       <c r="K158" s="9" t="s">
         <v>1868</v>
       </c>
-      <c r="M158" s="9" t="s">
+      <c r="P158" s="9" t="s">
         <v>2185</v>
       </c>
-      <c r="N158" s="9" t="s">
+      <c r="Q158" s="9" t="s">
         <v>2538</v>
       </c>
-      <c r="O158" s="9" t="s">
+      <c r="R158" s="9" t="s">
         <v>1868</v>
       </c>
-      <c r="P158" s="9" t="s">
+      <c r="S158" s="9" t="s">
         <v>2363</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:19">
       <c r="A159" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16715,11 +16871,11 @@
       <c r="J159" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P159" s="2" t="s">
+      <c r="S159" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:19">
       <c r="A160" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16759,14 +16915,14 @@
       <c r="K160" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="O160" s="2" t="s">
+      <c r="R160" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="P160" s="2" t="s">
+      <c r="S160" s="2" t="s">
         <v>2364</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="9" customFormat="1">
+    <row r="161" spans="1:19" s="9" customFormat="1">
       <c r="A161" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16806,20 +16962,20 @@
       <c r="K161" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="M161" s="9" t="s">
+      <c r="P161" s="9" t="s">
         <v>2186</v>
       </c>
-      <c r="N161" s="9" t="s">
+      <c r="Q161" s="9" t="s">
         <v>2539</v>
       </c>
-      <c r="O161" s="9" t="s">
+      <c r="R161" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="P161" s="9" t="s">
+      <c r="S161" s="9" t="s">
         <v>2365</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:19">
       <c r="A162" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16859,14 +17015,14 @@
       <c r="K162" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="O162" s="2" t="s">
+      <c r="R162" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="P162" s="2" t="s">
+      <c r="S162" s="2" t="s">
         <v>2366</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:19">
       <c r="A163" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16906,14 +17062,14 @@
       <c r="K163" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="O163" s="2" t="s">
+      <c r="R163" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="P163" s="2" t="s">
+      <c r="S163" s="2" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:19">
       <c r="A164" s="8" t="s">
         <v>2221</v>
       </c>
@@ -16953,14 +17109,14 @@
       <c r="K164" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="O164" s="2" t="s">
+      <c r="R164" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="P164" s="2" t="s">
+      <c r="S164" s="2" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:19">
       <c r="A165" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17000,14 +17156,14 @@
       <c r="K165" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="O165" s="2" t="s">
+      <c r="R165" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="P165" s="2" t="s">
+      <c r="S165" s="2" t="s">
         <v>2369</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:19">
       <c r="A166" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17047,14 +17203,14 @@
       <c r="K166" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="O166" s="2" t="s">
+      <c r="R166" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="P166" s="2" t="s">
+      <c r="S166" s="2" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:19">
       <c r="A167" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17094,14 +17250,14 @@
       <c r="K167" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="O167" s="2" t="s">
+      <c r="R167" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="P167" s="2" t="s">
+      <c r="S167" s="2" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:19">
       <c r="A168" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17139,12 +17295,15 @@
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
       <c r="O168" s="9"/>
-      <c r="P168" s="9" t="s">
+      <c r="R168" s="9"/>
+      <c r="S168" s="9" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:19">
       <c r="A169" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17184,14 +17343,14 @@
       <c r="K169" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="O169" s="2" t="s">
+      <c r="R169" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="P169" s="2" t="s">
+      <c r="S169" s="2" t="s">
         <v>2372</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="9" customFormat="1">
+    <row r="170" spans="1:19" s="9" customFormat="1">
       <c r="A170" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17231,20 +17390,20 @@
       <c r="K170" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="M170" s="9" t="s">
+      <c r="P170" s="9" t="s">
         <v>2187</v>
       </c>
-      <c r="N170" s="9" t="s">
+      <c r="Q170" s="9" t="s">
         <v>2540</v>
       </c>
-      <c r="O170" s="9" t="s">
+      <c r="R170" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="P170" s="9" t="s">
+      <c r="S170" s="9" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:19">
       <c r="A171" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17284,14 +17443,14 @@
       <c r="K171" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="O171" s="2" t="s">
+      <c r="R171" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="P171" s="2" t="s">
+      <c r="S171" s="2" t="s">
         <v>2375</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:19">
       <c r="A172" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17331,14 +17490,14 @@
       <c r="K172" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="O172" s="2" t="s">
+      <c r="R172" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="P172" s="2" t="s">
+      <c r="S172" s="2" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:19">
       <c r="A173" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17378,14 +17537,14 @@
       <c r="K173" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="O173" s="2" t="s">
+      <c r="R173" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="P173" s="2" t="s">
+      <c r="S173" s="2" t="s">
         <v>2376</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:19">
       <c r="A174" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17425,14 +17584,14 @@
       <c r="K174" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="O174" s="2" t="s">
+      <c r="R174" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="P174" s="2" t="s">
+      <c r="S174" s="2" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:19">
       <c r="A175" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17471,14 +17630,14 @@
       <c r="K175" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="O175" s="2" t="s">
+      <c r="R175" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="P175" s="2" t="s">
+      <c r="S175" s="2" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:19">
       <c r="A176" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17518,14 +17677,14 @@
       <c r="K176" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="O176" s="2" t="s">
+      <c r="R176" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="P176" s="2" t="s">
+      <c r="S176" s="2" t="s">
         <v>2379</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:19">
       <c r="A177" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17565,14 +17724,14 @@
       <c r="K177" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="O177" s="2" t="s">
+      <c r="R177" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="P177" s="2" t="s">
+      <c r="S177" s="2" t="s">
         <v>2380</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="9" customFormat="1">
+    <row r="178" spans="1:19" s="9" customFormat="1">
       <c r="A178" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17612,20 +17771,20 @@
       <c r="K178" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="M178" s="9" t="s">
+      <c r="P178" s="9" t="s">
         <v>2188</v>
       </c>
-      <c r="N178" s="9" t="s">
+      <c r="Q178" s="9" t="s">
         <v>2541</v>
       </c>
-      <c r="O178" s="9" t="s">
+      <c r="R178" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="P178" s="9" t="s">
+      <c r="S178" s="9" t="s">
         <v>2381</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:19">
       <c r="A179" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17665,14 +17824,14 @@
       <c r="K179" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="O179" s="2" t="s">
+      <c r="R179" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="P179" s="2" t="s">
+      <c r="S179" s="2" t="s">
         <v>2382</v>
       </c>
     </row>
-    <row r="180" spans="1:16" s="9" customFormat="1">
+    <row r="180" spans="1:19" s="9" customFormat="1">
       <c r="A180" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17712,20 +17871,20 @@
       <c r="K180" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="M180" s="9" t="s">
+      <c r="P180" s="9" t="s">
         <v>2189</v>
       </c>
-      <c r="N180" s="9" t="s">
+      <c r="Q180" s="9" t="s">
         <v>2542</v>
       </c>
-      <c r="O180" s="9" t="s">
+      <c r="R180" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="P180" s="9" t="s">
+      <c r="S180" s="9" t="s">
         <v>2383</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:19">
       <c r="A181" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17765,14 +17924,14 @@
       <c r="K181" s="2" t="s">
         <v>1910</v>
       </c>
-      <c r="O181" s="2" t="s">
+      <c r="R181" s="2" t="s">
         <v>1910</v>
       </c>
-      <c r="P181" s="2" t="s">
+      <c r="S181" s="2" t="s">
         <v>2384</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:19">
       <c r="A182" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17812,14 +17971,14 @@
       <c r="K182" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="O182" s="2" t="s">
+      <c r="R182" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="P182" s="2" t="s">
+      <c r="S182" s="2" t="s">
         <v>2385</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:19">
       <c r="A183" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17859,14 +18018,14 @@
       <c r="K183" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="O183" s="2" t="s">
+      <c r="R183" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="P183" s="2" t="s">
+      <c r="S183" s="2" t="s">
         <v>2386</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:19">
       <c r="A184" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17906,14 +18065,14 @@
       <c r="K184" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="O184" s="2" t="s">
+      <c r="R184" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="P184" s="2" t="s">
+      <c r="S184" s="2" t="s">
         <v>2387</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:19">
       <c r="A185" s="8" t="s">
         <v>2221</v>
       </c>
@@ -17953,14 +18112,14 @@
       <c r="K185" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="O185" s="2" t="s">
+      <c r="R185" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="P185" s="2" t="s">
+      <c r="S185" s="2" t="s">
         <v>2388</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="9" customFormat="1">
+    <row r="186" spans="1:19" s="9" customFormat="1">
       <c r="A186" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18000,20 +18159,20 @@
       <c r="K186" s="9" t="s">
         <v>1921</v>
       </c>
-      <c r="M186" s="9" t="s">
+      <c r="P186" s="9" t="s">
         <v>2190</v>
       </c>
-      <c r="N186" s="9" t="s">
+      <c r="Q186" s="9" t="s">
         <v>2543</v>
       </c>
-      <c r="O186" s="9" t="s">
+      <c r="R186" s="9" t="s">
         <v>1921</v>
       </c>
-      <c r="P186" s="9" t="s">
+      <c r="S186" s="9" t="s">
         <v>2389</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:19">
       <c r="A187" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18053,14 +18212,14 @@
       <c r="K187" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="O187" s="2" t="s">
+      <c r="R187" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="P187" s="2" t="s">
+      <c r="S187" s="2" t="s">
         <v>2390</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:19">
       <c r="A188" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18100,14 +18259,14 @@
       <c r="K188" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="O188" s="2" t="s">
+      <c r="R188" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="P188" s="2" t="s">
+      <c r="S188" s="2" t="s">
         <v>2391</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:19">
       <c r="A189" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18147,14 +18306,14 @@
       <c r="K189" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="O189" s="2" t="s">
+      <c r="R189" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="P189" s="2" t="s">
+      <c r="S189" s="2" t="s">
         <v>2392</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:19">
       <c r="A190" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18194,14 +18353,14 @@
       <c r="K190" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="O190" s="2" t="s">
+      <c r="R190" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="P190" s="2" t="s">
+      <c r="S190" s="2" t="s">
         <v>2393</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:19">
       <c r="A191" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18241,14 +18400,14 @@
       <c r="K191" s="2" t="s">
         <v>1931</v>
       </c>
-      <c r="O191" s="2" t="s">
+      <c r="R191" s="2" t="s">
         <v>1931</v>
       </c>
-      <c r="P191" s="2" t="s">
+      <c r="S191" s="2" t="s">
         <v>2394</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:19">
       <c r="A192" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18288,14 +18447,14 @@
       <c r="K192" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="O192" s="2" t="s">
+      <c r="R192" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="P192" s="2" t="s">
+      <c r="S192" s="2" t="s">
         <v>2395</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="9" customFormat="1">
+    <row r="193" spans="1:19" s="9" customFormat="1">
       <c r="A193" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18335,20 +18494,20 @@
       <c r="K193" s="9" t="s">
         <v>1938</v>
       </c>
-      <c r="M193" s="9" t="s">
+      <c r="P193" s="9" t="s">
         <v>2191</v>
       </c>
-      <c r="N193" s="9" t="s">
+      <c r="Q193" s="9" t="s">
         <v>2544</v>
       </c>
-      <c r="O193" s="9" t="s">
+      <c r="R193" s="9" t="s">
         <v>1938</v>
       </c>
-      <c r="P193" s="9" t="s">
+      <c r="S193" s="9" t="s">
         <v>2396</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:19">
       <c r="A194" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18388,14 +18547,14 @@
       <c r="K194" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="O194" s="2" t="s">
+      <c r="R194" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="P194" s="2" t="s">
+      <c r="S194" s="2" t="s">
         <v>2397</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:19">
       <c r="A195" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18435,14 +18594,14 @@
       <c r="K195" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="O195" s="2" t="s">
+      <c r="R195" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="P195" s="2" t="s">
+      <c r="S195" s="2" t="s">
         <v>2398</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:19">
       <c r="A196" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18482,14 +18641,14 @@
       <c r="K196" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="O196" s="2" t="s">
+      <c r="R196" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="P196" s="2" t="s">
+      <c r="S196" s="2" t="s">
         <v>2399</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:19">
       <c r="A197" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18529,14 +18688,14 @@
       <c r="K197" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="O197" s="2" t="s">
+      <c r="R197" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="P197" s="2" t="s">
+      <c r="S197" s="2" t="s">
         <v>2400</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="9" customFormat="1">
+    <row r="198" spans="1:19" s="9" customFormat="1">
       <c r="A198" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18576,20 +18735,20 @@
       <c r="K198" s="9" t="s">
         <v>1944</v>
       </c>
-      <c r="M198" s="9" t="s">
+      <c r="P198" s="9" t="s">
         <v>2194</v>
       </c>
-      <c r="N198" s="9" t="s">
+      <c r="Q198" s="9" t="s">
         <v>2545</v>
       </c>
-      <c r="O198" s="9" t="s">
+      <c r="R198" s="9" t="s">
         <v>1944</v>
       </c>
-      <c r="P198" s="9" t="s">
+      <c r="S198" s="9" t="s">
         <v>2401</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:19">
       <c r="A199" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18629,14 +18788,14 @@
       <c r="K199" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="O199" s="2" t="s">
+      <c r="R199" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="P199" s="2" t="s">
+      <c r="S199" s="2" t="s">
         <v>2402</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:19">
       <c r="A200" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18676,14 +18835,14 @@
       <c r="K200" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="O200" s="2" t="s">
+      <c r="R200" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="P200" s="2" t="s">
+      <c r="S200" s="2" t="s">
         <v>2403</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:19">
       <c r="A201" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18723,14 +18882,14 @@
       <c r="K201" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="O201" s="2" t="s">
+      <c r="R201" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="P201" s="2" t="s">
+      <c r="S201" s="2" t="s">
         <v>2404</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:19">
       <c r="A202" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18770,14 +18929,14 @@
       <c r="K202" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="O202" s="2" t="s">
+      <c r="R202" s="2" t="s">
         <v>2405</v>
       </c>
-      <c r="P202" s="2" t="s">
+      <c r="S202" s="2" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:19">
       <c r="A203" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18817,14 +18976,14 @@
       <c r="K203" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="O203" s="2" t="s">
+      <c r="R203" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="P203" s="2" t="s">
+      <c r="S203" s="2" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:19">
       <c r="A204" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18864,14 +19023,14 @@
       <c r="K204" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="O204" s="2" t="s">
+      <c r="R204" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="P204" s="2" t="s">
+      <c r="S204" s="2" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:19">
       <c r="A205" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18911,14 +19070,14 @@
       <c r="K205" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="O205" s="2" t="s">
+      <c r="R205" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="P205" s="2" t="s">
+      <c r="S205" s="2" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:19">
       <c r="A206" s="8" t="s">
         <v>2221</v>
       </c>
@@ -18957,14 +19116,14 @@
       <c r="K206" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="O206" s="2" t="s">
+      <c r="R206" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="P206" s="2" t="s">
+      <c r="S206" s="2" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="9" customFormat="1">
+    <row r="207" spans="1:19" s="9" customFormat="1">
       <c r="A207" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19004,20 +19163,20 @@
       <c r="K207" s="9" t="s">
         <v>1961</v>
       </c>
-      <c r="M207" s="9" t="s">
+      <c r="P207" s="9" t="s">
         <v>2195</v>
       </c>
-      <c r="N207" s="9" t="s">
+      <c r="Q207" s="9" t="s">
         <v>2546</v>
       </c>
-      <c r="O207" s="9" t="s">
+      <c r="R207" s="9" t="s">
         <v>1961</v>
       </c>
-      <c r="P207" s="9" t="s">
+      <c r="S207" s="9" t="s">
         <v>2411</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:19">
       <c r="A208" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19057,14 +19216,14 @@
       <c r="K208" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="O208" s="2" t="s">
+      <c r="R208" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="P208" s="2" t="s">
+      <c r="S208" s="2" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:19">
       <c r="A209" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19104,14 +19263,14 @@
       <c r="K209" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="O209" s="2" t="s">
+      <c r="R209" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="P209" s="2" t="s">
+      <c r="S209" s="2" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:19">
       <c r="A210" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19150,14 +19309,14 @@
       <c r="K210" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="O210" s="2" t="s">
+      <c r="R210" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="P210" s="2" t="s">
+      <c r="S210" s="2" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:19">
       <c r="A211" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19196,14 +19355,14 @@
       <c r="K211" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="O211" s="2" t="s">
+      <c r="R211" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="P211" s="2" t="s">
+      <c r="S211" s="2" t="s">
         <v>2415</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:19">
       <c r="A212" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19243,14 +19402,14 @@
       <c r="K212" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="O212" s="2" t="s">
+      <c r="R212" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="P212" s="2" t="s">
+      <c r="S212" s="2" t="s">
         <v>2416</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:19">
       <c r="A213" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19290,14 +19449,14 @@
       <c r="K213" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="O213" s="2" t="s">
+      <c r="R213" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="P213" s="2" t="s">
+      <c r="S213" s="2" t="s">
         <v>2417</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="9" customFormat="1">
+    <row r="214" spans="1:19" s="9" customFormat="1">
       <c r="A214" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19337,20 +19496,20 @@
       <c r="K214" s="9" t="s">
         <v>1976</v>
       </c>
-      <c r="M214" s="9" t="s">
+      <c r="P214" s="9" t="s">
         <v>2192</v>
       </c>
-      <c r="N214" s="9" t="s">
+      <c r="Q214" s="9" t="s">
         <v>2547</v>
       </c>
-      <c r="O214" s="9" t="s">
+      <c r="R214" s="9" t="s">
         <v>1976</v>
       </c>
-      <c r="P214" s="9" t="s">
+      <c r="S214" s="9" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:19">
       <c r="A215" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19385,11 +19544,11 @@
       <c r="J215" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P215" s="2" t="s">
+      <c r="S215" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:19">
       <c r="A216" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19429,14 +19588,14 @@
       <c r="K216" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="O216" s="2" t="s">
+      <c r="R216" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="P216" s="2" t="s">
+      <c r="S216" s="2" t="s">
         <v>2419</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:19">
       <c r="A217" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19471,11 +19630,11 @@
       <c r="J217" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P217" s="2" t="s">
+      <c r="S217" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:19">
       <c r="A218" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19515,14 +19674,14 @@
       <c r="K218" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="O218" s="2" t="s">
+      <c r="R218" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="P218" s="2" t="s">
+      <c r="S218" s="2" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:19">
       <c r="A219" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19562,14 +19721,14 @@
       <c r="K219" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="O219" s="2" t="s">
+      <c r="R219" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="P219" s="2" t="s">
+      <c r="S219" s="2" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:19">
       <c r="A220" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19609,14 +19768,14 @@
       <c r="K220" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="O220" s="2" t="s">
+      <c r="R220" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="P220" s="2" t="s">
+      <c r="S220" s="2" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:19">
       <c r="A221" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19652,11 +19811,11 @@
       <c r="J221" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P221" s="2" t="s">
+      <c r="S221" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:19">
       <c r="A222" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19696,14 +19855,14 @@
       <c r="K222" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="O222" s="2" t="s">
+      <c r="R222" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="P222" s="2" t="s">
+      <c r="S222" s="2" t="s">
         <v>2421</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:19">
       <c r="A223" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19743,14 +19902,14 @@
       <c r="K223" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="O223" s="2" t="s">
+      <c r="R223" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="P223" s="2" t="s">
+      <c r="S223" s="2" t="s">
         <v>2424</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:19">
       <c r="A224" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19790,14 +19949,14 @@
       <c r="K224" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="O224" s="2" t="s">
+      <c r="R224" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="P224" s="2" t="s">
+      <c r="S224" s="2" t="s">
         <v>2425</v>
       </c>
     </row>
-    <row r="225" spans="1:16" s="9" customFormat="1">
+    <row r="225" spans="1:19" s="9" customFormat="1">
       <c r="A225" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19837,20 +19996,20 @@
       <c r="K225" s="9" t="s">
         <v>1998</v>
       </c>
-      <c r="M225" s="9" t="s">
+      <c r="P225" s="9" t="s">
         <v>2193</v>
       </c>
-      <c r="N225" s="9" t="s">
+      <c r="Q225" s="9" t="s">
         <v>2548</v>
       </c>
-      <c r="O225" s="9" t="s">
+      <c r="R225" s="9" t="s">
         <v>1998</v>
       </c>
-      <c r="P225" s="9" t="s">
+      <c r="S225" s="9" t="s">
         <v>2426</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:19">
       <c r="A226" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19890,14 +20049,14 @@
       <c r="K226" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="O226" s="2" t="s">
+      <c r="R226" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="P226" s="2" t="s">
+      <c r="S226" s="2" t="s">
         <v>2427</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:19">
       <c r="A227" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19937,14 +20096,14 @@
       <c r="K227" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="O227" s="2" t="s">
+      <c r="R227" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="P227" s="2" t="s">
+      <c r="S227" s="2" t="s">
         <v>2431</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:19">
       <c r="A228" s="8" t="s">
         <v>2221</v>
       </c>
@@ -19984,14 +20143,14 @@
       <c r="K228" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="O228" s="2" t="s">
+      <c r="R228" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="P228" s="2" t="s">
+      <c r="S228" s="2" t="s">
         <v>2428</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:19">
       <c r="A229" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20031,14 +20190,14 @@
       <c r="K229" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="O229" s="2" t="s">
+      <c r="R229" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="P229" s="2" t="s">
+      <c r="S229" s="2" t="s">
         <v>2429</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:19">
       <c r="A230" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20078,14 +20237,14 @@
       <c r="K230" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="O230" s="2" t="s">
+      <c r="R230" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="P230" s="2" t="s">
+      <c r="S230" s="2" t="s">
         <v>2430</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:19">
       <c r="A231" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20125,14 +20284,14 @@
       <c r="K231" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="O231" s="2" t="s">
+      <c r="R231" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="P231" s="2" t="s">
+      <c r="S231" s="2" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="232" spans="1:16" s="9" customFormat="1">
+    <row r="232" spans="1:19" s="9" customFormat="1">
       <c r="A232" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20172,20 +20331,20 @@
       <c r="K232" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="M232" s="9" t="s">
+      <c r="P232" s="9" t="s">
         <v>2438</v>
       </c>
-      <c r="N232" s="9" t="s">
+      <c r="Q232" s="9" t="s">
         <v>2549</v>
       </c>
-      <c r="O232" s="9" t="s">
+      <c r="R232" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="P232" s="9" t="s">
+      <c r="S232" s="9" t="s">
         <v>2434</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:19">
       <c r="A233" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20221,11 +20380,11 @@
       <c r="J233" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P233" s="2" t="s">
+      <c r="S233" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:19">
       <c r="A234" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20265,14 +20424,14 @@
       <c r="K234" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="O234" s="2" t="s">
+      <c r="R234" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="P234" s="2" t="s">
+      <c r="S234" s="2" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:19">
       <c r="A235" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20312,14 +20471,14 @@
       <c r="K235" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="O235" s="2" t="s">
+      <c r="R235" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="P235" s="2" t="s">
+      <c r="S235" s="2" t="s">
         <v>2435</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:19">
       <c r="A236" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20359,14 +20518,14 @@
       <c r="K236" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="O236" s="2" t="s">
+      <c r="R236" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="P236" s="2" t="s">
+      <c r="S236" s="2" t="s">
         <v>2436</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:19">
       <c r="A237" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20402,11 +20561,11 @@
       <c r="J237" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P237" s="2" t="s">
+      <c r="S237" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:19">
       <c r="A238" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20446,14 +20605,14 @@
       <c r="K238" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="O238" s="2" t="s">
+      <c r="R238" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="P238" s="2" t="s">
+      <c r="S238" s="2" t="s">
         <v>2437</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:19">
       <c r="A239" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20489,11 +20648,11 @@
       <c r="J239" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P239" s="2" t="s">
+      <c r="S239" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:19">
       <c r="A240" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20533,14 +20692,14 @@
       <c r="K240" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="O240" s="2" t="s">
+      <c r="R240" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="P240" s="2" t="s">
+      <c r="S240" s="2" t="s">
         <v>2439</v>
       </c>
     </row>
-    <row r="241" spans="1:16" s="9" customFormat="1">
+    <row r="241" spans="1:19" s="9" customFormat="1">
       <c r="A241" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20580,20 +20739,20 @@
       <c r="K241" s="9" t="s">
         <v>2022</v>
       </c>
-      <c r="M241" s="9" t="s">
+      <c r="P241" s="9" t="s">
         <v>2196</v>
       </c>
-      <c r="N241" s="9" t="s">
+      <c r="Q241" s="9" t="s">
         <v>2550</v>
       </c>
-      <c r="O241" s="9" t="s">
+      <c r="R241" s="9" t="s">
         <v>2022</v>
       </c>
-      <c r="P241" s="9" t="s">
+      <c r="S241" s="9" t="s">
         <v>2440</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:19">
       <c r="A242" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20633,14 +20792,14 @@
       <c r="K242" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="O242" s="2" t="s">
+      <c r="R242" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="P242" s="2" t="s">
+      <c r="S242" s="2" t="s">
         <v>2441</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:19">
       <c r="A243" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20680,14 +20839,14 @@
       <c r="K243" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="O243" s="2" t="s">
+      <c r="R243" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="P243" s="2" t="s">
+      <c r="S243" s="2" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:19">
       <c r="A244" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20727,14 +20886,14 @@
       <c r="K244" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="O244" s="2" t="s">
+      <c r="R244" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="P244" s="2" t="s">
+      <c r="S244" s="2" t="s">
         <v>2443</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:19">
       <c r="A245" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20774,14 +20933,14 @@
       <c r="K245" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="O245" s="2" t="s">
+      <c r="R245" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="P245" s="2" t="s">
+      <c r="S245" s="2" t="s">
         <v>2444</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="9" customFormat="1">
+    <row r="246" spans="1:19" s="9" customFormat="1">
       <c r="A246" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20821,20 +20980,20 @@
       <c r="K246" s="9" t="s">
         <v>2032</v>
       </c>
-      <c r="M246" s="9" t="s">
+      <c r="P246" s="9" t="s">
         <v>2197</v>
       </c>
-      <c r="N246" s="9" t="s">
+      <c r="Q246" s="9" t="s">
         <v>2551</v>
       </c>
-      <c r="O246" s="9" t="s">
+      <c r="R246" s="9" t="s">
         <v>2032</v>
       </c>
-      <c r="P246" s="9" t="s">
+      <c r="S246" s="9" t="s">
         <v>2445</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:19">
       <c r="A247" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20874,14 +21033,14 @@
       <c r="K247" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="O247" s="2" t="s">
+      <c r="R247" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="P247" s="2" t="s">
+      <c r="S247" s="2" t="s">
         <v>2446</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:19">
       <c r="A248" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20921,14 +21080,14 @@
       <c r="K248" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="O248" s="2" t="s">
+      <c r="R248" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="P248" s="2" t="s">
+      <c r="S248" s="2" t="s">
         <v>2447</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:19">
       <c r="A249" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20968,14 +21127,14 @@
       <c r="K249" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="O249" s="2" t="s">
+      <c r="R249" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="P249" s="2" t="s">
+      <c r="S249" s="2" t="s">
         <v>2448</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:19">
       <c r="A250" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21015,14 +21174,14 @@
       <c r="K250" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="O250" s="2" t="s">
+      <c r="R250" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="P250" s="2" t="s">
+      <c r="S250" s="2" t="s">
         <v>2449</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="9" customFormat="1">
+    <row r="251" spans="1:19" s="9" customFormat="1">
       <c r="A251" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21062,20 +21221,20 @@
       <c r="K251" s="9" t="s">
         <v>2040</v>
       </c>
-      <c r="M251" s="9" t="s">
+      <c r="P251" s="9" t="s">
         <v>2198</v>
       </c>
-      <c r="N251" s="9" t="s">
+      <c r="Q251" s="9" t="s">
         <v>2552</v>
       </c>
-      <c r="O251" s="9" t="s">
+      <c r="R251" s="9" t="s">
         <v>2040</v>
       </c>
-      <c r="P251" s="9" t="s">
+      <c r="S251" s="9" t="s">
         <v>2450</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:19">
       <c r="A252" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21111,11 +21270,11 @@
       <c r="J252" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P252" s="2" t="s">
+      <c r="S252" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:19">
       <c r="A253" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21155,14 +21314,14 @@
       <c r="K253" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="O253" s="2" t="s">
+      <c r="R253" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="P253" s="2" t="s">
+      <c r="S253" s="2" t="s">
         <v>2451</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:19">
       <c r="A254" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21202,14 +21361,14 @@
       <c r="K254" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="O254" s="2" t="s">
+      <c r="R254" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="P254" s="2" t="s">
+      <c r="S254" s="2" t="s">
         <v>2452</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="9" customFormat="1">
+    <row r="255" spans="1:19" s="9" customFormat="1">
       <c r="A255" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21249,20 +21408,20 @@
       <c r="K255" s="9" t="s">
         <v>2046</v>
       </c>
-      <c r="M255" s="9" t="s">
+      <c r="P255" s="9" t="s">
         <v>2199</v>
       </c>
-      <c r="N255" s="9" t="s">
+      <c r="Q255" s="9" t="s">
         <v>2553</v>
       </c>
-      <c r="O255" s="9" t="s">
+      <c r="R255" s="9" t="s">
         <v>2046</v>
       </c>
-      <c r="P255" s="9" t="s">
+      <c r="S255" s="9" t="s">
         <v>2453</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:19">
       <c r="A256" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21302,14 +21461,14 @@
       <c r="K256" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="O256" s="2" t="s">
+      <c r="R256" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="P256" s="2" t="s">
+      <c r="S256" s="2" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:19">
       <c r="A257" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21349,14 +21508,14 @@
       <c r="K257" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="O257" s="2" t="s">
+      <c r="R257" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="P257" s="2" t="s">
+      <c r="S257" s="2" t="s">
         <v>2455</v>
       </c>
     </row>
-    <row r="258" spans="1:16" s="9" customFormat="1">
+    <row r="258" spans="1:19" s="9" customFormat="1">
       <c r="A258" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21396,20 +21555,20 @@
       <c r="K258" s="9" t="s">
         <v>2051</v>
       </c>
-      <c r="M258" s="9" t="s">
+      <c r="P258" s="9" t="s">
         <v>2200</v>
       </c>
-      <c r="N258" s="9" t="s">
+      <c r="Q258" s="9" t="s">
         <v>2554</v>
       </c>
-      <c r="O258" s="9" t="s">
+      <c r="R258" s="9" t="s">
         <v>2051</v>
       </c>
-      <c r="P258" s="9" t="s">
+      <c r="S258" s="9" t="s">
         <v>2460</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:19">
       <c r="A259" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21449,14 +21608,14 @@
       <c r="K259" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="O259" s="2" t="s">
+      <c r="R259" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="P259" s="2" t="s">
+      <c r="S259" s="2" t="s">
         <v>2456</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:19">
       <c r="A260" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21496,14 +21655,14 @@
       <c r="K260" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="O260" s="2" t="s">
+      <c r="R260" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="P260" s="2" t="s">
+      <c r="S260" s="2" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:19">
       <c r="A261" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21543,14 +21702,14 @@
       <c r="K261" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="O261" s="2" t="s">
+      <c r="R261" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="P261" s="2" t="s">
+      <c r="S261" s="2" t="s">
         <v>2458</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:19">
       <c r="A262" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21590,14 +21749,14 @@
       <c r="K262" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="O262" s="2" t="s">
+      <c r="R262" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="P262" s="2" t="s">
+      <c r="S262" s="2" t="s">
         <v>2459</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:19">
       <c r="A263" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21637,14 +21796,14 @@
       <c r="K263" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="O263" s="2" t="s">
+      <c r="R263" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="P263" s="2" t="s">
+      <c r="S263" s="2" t="s">
         <v>2461</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:19">
       <c r="A264" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21684,14 +21843,14 @@
       <c r="K264" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="O264" s="2" t="s">
+      <c r="R264" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="P264" s="2" t="s">
+      <c r="S264" s="2" t="s">
         <v>2462</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:19">
       <c r="A265" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21731,14 +21890,14 @@
       <c r="K265" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="O265" s="2" t="s">
+      <c r="R265" s="2" t="s">
         <v>2463</v>
       </c>
-      <c r="P265" s="2" t="s">
+      <c r="S265" s="2" t="s">
         <v>2472</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:19">
       <c r="A266" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21778,14 +21937,14 @@
       <c r="K266" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="O266" s="2" t="s">
+      <c r="R266" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="P266" s="2" t="s">
+      <c r="S266" s="2" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:19">
       <c r="A267" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21825,14 +21984,14 @@
       <c r="K267" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="O267" s="2" t="s">
+      <c r="R267" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="P267" s="2" t="s">
+      <c r="S267" s="2" t="s">
         <v>2465</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:19">
       <c r="A268" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21868,11 +22027,11 @@
       <c r="J268" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P268" s="2" t="s">
+      <c r="S268" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:19">
       <c r="A269" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21912,14 +22071,14 @@
       <c r="K269" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="O269" s="2" t="s">
+      <c r="R269" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="P269" s="2" t="s">
+      <c r="S269" s="2" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:19">
       <c r="A270" s="8" t="s">
         <v>2221</v>
       </c>
@@ -21959,14 +22118,14 @@
       <c r="K270" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="O270" s="2" t="s">
+      <c r="R270" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="P270" s="2" t="s">
+      <c r="S270" s="2" t="s">
         <v>2467</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:19">
       <c r="A271" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22005,11 +22164,11 @@
       <c r="K271" s="2" t="s">
         <v>2073</v>
       </c>
-      <c r="P271" s="2" t="s">
+      <c r="S271" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:19">
       <c r="A272" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22044,11 +22203,11 @@
       <c r="J272" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P272" s="2" t="s">
+      <c r="S272" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="8" customFormat="1">
+    <row r="273" spans="1:19" s="8" customFormat="1">
       <c r="A273" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22088,23 +22247,26 @@
       <c r="K273" s="8" t="s">
         <v>2078</v>
       </c>
-      <c r="L273" s="8" t="s">
+      <c r="N273" s="8" t="s">
         <v>2201</v>
       </c>
-      <c r="M273" s="8" t="s">
+      <c r="O273" s="8" t="s">
+        <v>2573</v>
+      </c>
+      <c r="P273" s="8" t="s">
         <v>2202</v>
       </c>
-      <c r="N273" s="8" t="s">
+      <c r="Q273" s="8" t="s">
         <v>2555</v>
       </c>
-      <c r="O273" s="8" t="s">
+      <c r="R273" s="8" t="s">
         <v>2078</v>
       </c>
-      <c r="P273" s="8" t="s">
+      <c r="S273" s="8" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:19">
       <c r="A274" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22144,14 +22306,14 @@
       <c r="K274" s="2" t="s">
         <v>2079</v>
       </c>
-      <c r="O274" s="2" t="s">
+      <c r="R274" s="2" t="s">
         <v>2079</v>
       </c>
-      <c r="P274" s="2" t="s">
+      <c r="S274" s="2" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:19">
       <c r="A275" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22191,14 +22353,14 @@
       <c r="K275" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="O275" s="2" t="s">
+      <c r="R275" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="P275" s="2" t="s">
+      <c r="S275" s="2" t="s">
         <v>2470</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:19">
       <c r="A276" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22238,14 +22400,14 @@
       <c r="K276" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="O276" s="2" t="s">
+      <c r="R276" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="P276" s="2" t="s">
+      <c r="S276" s="2" t="s">
         <v>2471</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="9" customFormat="1">
+    <row r="277" spans="1:19" s="9" customFormat="1">
       <c r="A277" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22285,20 +22447,20 @@
       <c r="K277" s="9" t="s">
         <v>2087</v>
       </c>
-      <c r="M277" s="9" t="s">
+      <c r="P277" s="9" t="s">
         <v>2203</v>
       </c>
-      <c r="N277" s="9" t="s">
+      <c r="Q277" s="9" t="s">
         <v>2556</v>
       </c>
-      <c r="O277" s="9" t="s">
+      <c r="R277" s="9" t="s">
         <v>2087</v>
       </c>
-      <c r="P277" s="9" t="s">
+      <c r="S277" s="9" t="s">
         <v>2473</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:19">
       <c r="A278" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22338,14 +22500,14 @@
       <c r="K278" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="O278" s="2" t="s">
+      <c r="R278" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="P278" s="2" t="s">
+      <c r="S278" s="2" t="s">
         <v>2474</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:19">
       <c r="A279" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22385,14 +22547,14 @@
       <c r="K279" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="O279" s="2" t="s">
+      <c r="R279" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="P279" s="2" t="s">
+      <c r="S279" s="2" t="s">
         <v>2475</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:19">
       <c r="A280" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22432,14 +22594,14 @@
       <c r="K280" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="O280" s="2" t="s">
+      <c r="R280" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="P280" s="2" t="s">
+      <c r="S280" s="2" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:19">
       <c r="A281" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22479,14 +22641,14 @@
       <c r="K281" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="O281" s="2" t="s">
+      <c r="R281" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="P281" s="2" t="s">
+      <c r="S281" s="2" t="s">
         <v>2476</v>
       </c>
     </row>
-    <row r="282" spans="1:16" s="8" customFormat="1">
+    <row r="282" spans="1:19" s="8" customFormat="1">
       <c r="A282" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22526,23 +22688,26 @@
       <c r="K282" s="8" t="s">
         <v>2094</v>
       </c>
-      <c r="L282" s="8" t="s">
+      <c r="N282" s="8" t="s">
         <v>2204</v>
       </c>
-      <c r="M282" s="8" t="s">
+      <c r="O282" s="8" t="s">
+        <v>2574</v>
+      </c>
+      <c r="P282" s="8" t="s">
         <v>2205</v>
       </c>
-      <c r="N282" s="8" t="s">
+      <c r="Q282" s="8" t="s">
         <v>2557</v>
       </c>
-      <c r="O282" s="8" t="s">
+      <c r="R282" s="8" t="s">
         <v>2094</v>
       </c>
-      <c r="P282" s="8" t="s">
+      <c r="S282" s="8" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:19">
       <c r="A283" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22578,11 +22743,11 @@
       <c r="J283" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P283" s="2" t="s">
+      <c r="S283" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:19">
       <c r="A284" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22618,11 +22783,11 @@
       <c r="J284" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P284" s="2" t="s">
+      <c r="S284" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:19">
       <c r="A285" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22657,11 +22822,11 @@
       <c r="J285" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P285" s="2" t="s">
+      <c r="S285" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:19">
       <c r="A286" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22696,11 +22861,11 @@
       <c r="J286" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P286" s="2" t="s">
+      <c r="S286" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:19">
       <c r="A287" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22735,11 +22900,11 @@
       <c r="J287" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P287" s="2" t="s">
+      <c r="S287" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:19">
       <c r="A288" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22774,11 +22939,11 @@
       <c r="J288" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="P288" s="2" t="s">
+      <c r="S288" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:19">
       <c r="A289" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22818,14 +22983,14 @@
       <c r="K289" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="O289" s="2" t="s">
+      <c r="R289" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="P289" s="2" t="s">
+      <c r="S289" s="2" t="s">
         <v>2478</v>
       </c>
     </row>
-    <row r="290" spans="1:16" s="9" customFormat="1">
+    <row r="290" spans="1:19" s="9" customFormat="1">
       <c r="A290" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22865,20 +23030,20 @@
       <c r="K290" s="9" t="s">
         <v>2106</v>
       </c>
-      <c r="M290" s="9" t="s">
+      <c r="P290" s="9" t="s">
         <v>2206</v>
       </c>
-      <c r="N290" s="9" t="s">
+      <c r="Q290" s="9" t="s">
         <v>2558</v>
       </c>
-      <c r="O290" s="9" t="s">
+      <c r="R290" s="9" t="s">
         <v>2106</v>
       </c>
-      <c r="P290" s="9" t="s">
+      <c r="S290" s="9" t="s">
         <v>2479</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:19">
       <c r="A291" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22918,14 +23083,14 @@
       <c r="K291" s="2" t="s">
         <v>2107</v>
       </c>
-      <c r="O291" s="2" t="s">
+      <c r="R291" s="2" t="s">
         <v>2107</v>
       </c>
-      <c r="P291" s="2" t="s">
+      <c r="S291" s="2" t="s">
         <v>2480</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:19">
       <c r="A292" s="8" t="s">
         <v>2221</v>
       </c>
@@ -22965,14 +23130,14 @@
       <c r="K292" s="2" t="s">
         <v>2109</v>
       </c>
-      <c r="O292" s="2" t="s">
+      <c r="R292" s="2" t="s">
         <v>2108</v>
       </c>
-      <c r="P292" s="2" t="s">
+      <c r="S292" s="2" t="s">
         <v>2489</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:19">
       <c r="A293" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23012,14 +23177,14 @@
       <c r="K293" s="2" t="s">
         <v>2110</v>
       </c>
-      <c r="O293" s="2" t="s">
+      <c r="R293" s="2" t="s">
         <v>2110</v>
       </c>
-      <c r="P293" s="2" t="s">
+      <c r="S293" s="2" t="s">
         <v>2481</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:19">
       <c r="A294" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23059,14 +23224,14 @@
       <c r="K294" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="O294" s="2" t="s">
+      <c r="R294" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="P294" s="2" t="s">
+      <c r="S294" s="2" t="s">
         <v>2482</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:19">
       <c r="A295" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23106,14 +23271,14 @@
       <c r="K295" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="O295" s="2" t="s">
+      <c r="R295" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="P295" s="2" t="s">
+      <c r="S295" s="2" t="s">
         <v>2483</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:19">
       <c r="A296" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23153,14 +23318,14 @@
       <c r="K296" s="2" t="s">
         <v>2113</v>
       </c>
-      <c r="O296" s="2" t="s">
+      <c r="R296" s="2" t="s">
         <v>2113</v>
       </c>
-      <c r="P296" s="2" t="s">
+      <c r="S296" s="2" t="s">
         <v>2484</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:19">
       <c r="A297" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23200,14 +23365,14 @@
       <c r="K297" s="2" t="s">
         <v>2114</v>
       </c>
-      <c r="O297" s="2" t="s">
+      <c r="R297" s="2" t="s">
         <v>2114</v>
       </c>
-      <c r="P297" s="2" t="s">
+      <c r="S297" s="2" t="s">
         <v>2485</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:19">
       <c r="A298" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23247,14 +23412,14 @@
       <c r="K298" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="O298" s="2" t="s">
+      <c r="R298" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="P298" s="2" t="s">
+      <c r="S298" s="2" t="s">
         <v>2486</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:19">
       <c r="A299" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23294,14 +23459,14 @@
       <c r="K299" s="2" t="s">
         <v>2116</v>
       </c>
-      <c r="O299" s="2" t="s">
+      <c r="R299" s="2" t="s">
         <v>2117</v>
       </c>
-      <c r="P299" s="2" t="s">
+      <c r="S299" s="2" t="s">
         <v>2487</v>
       </c>
     </row>
-    <row r="300" spans="1:16" s="9" customFormat="1">
+    <row r="300" spans="1:19" s="9" customFormat="1">
       <c r="A300" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23341,20 +23506,20 @@
       <c r="K300" s="9" t="s">
         <v>2123</v>
       </c>
-      <c r="M300" s="9" t="s">
+      <c r="P300" s="9" t="s">
         <v>2207</v>
       </c>
-      <c r="N300" s="9" t="s">
+      <c r="Q300" s="9" t="s">
         <v>2559</v>
       </c>
-      <c r="O300" s="9" t="s">
+      <c r="R300" s="9" t="s">
         <v>2123</v>
       </c>
-      <c r="P300" s="9" t="s">
+      <c r="S300" s="9" t="s">
         <v>2488</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:19">
       <c r="A301" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23394,14 +23559,14 @@
       <c r="K301" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="O301" s="2" t="s">
+      <c r="R301" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="P301" s="2" t="s">
+      <c r="S301" s="2" t="s">
         <v>2490</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:19">
       <c r="A302" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23441,14 +23606,14 @@
       <c r="K302" s="2" t="s">
         <v>2125</v>
       </c>
-      <c r="O302" s="2" t="s">
+      <c r="R302" s="2" t="s">
         <v>2125</v>
       </c>
-      <c r="P302" s="2" t="s">
+      <c r="S302" s="2" t="s">
         <v>2491</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:19">
       <c r="A303" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23488,14 +23653,14 @@
       <c r="K303" s="2" t="s">
         <v>2126</v>
       </c>
-      <c r="O303" s="2" t="s">
+      <c r="R303" s="2" t="s">
         <v>2126</v>
       </c>
-      <c r="P303" s="2" t="s">
+      <c r="S303" s="2" t="s">
         <v>2492</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:19">
       <c r="A304" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23535,14 +23700,14 @@
       <c r="K304" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="O304" s="2" t="s">
+      <c r="R304" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="P304" s="2" t="s">
+      <c r="S304" s="2" t="s">
         <v>2493</v>
       </c>
     </row>
-    <row r="305" spans="1:16" s="9" customFormat="1">
+    <row r="305" spans="1:19" s="9" customFormat="1">
       <c r="A305" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23582,20 +23747,20 @@
       <c r="K305" s="9" t="s">
         <v>2130</v>
       </c>
-      <c r="M305" s="9" t="s">
+      <c r="P305" s="9" t="s">
         <v>2208</v>
       </c>
-      <c r="N305" s="9" t="s">
+      <c r="Q305" s="9" t="s">
         <v>2560</v>
       </c>
-      <c r="O305" s="9" t="s">
+      <c r="R305" s="9" t="s">
         <v>2130</v>
       </c>
-      <c r="P305" s="9" t="s">
+      <c r="S305" s="9" t="s">
         <v>2494</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:19">
       <c r="A306" s="8" t="s">
         <v>2221</v>
       </c>
@@ -23635,14 +23800,14 @@
       <c r="K306" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="O306" s="2" t="s">
+      <c r="R306" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="P306" s="2" t="s">
+      <c r="S306" s="2" t="s">
         <v>2495</v>
       </c>
     </row>
-    <row r="307" spans="1:16" s="8" customFormat="1">
+    <row r="307" spans="1:19" s="8" customFormat="1">
       <c r="A307" s="8" t="s">
         <v>2212</v>
       </c>
@@ -23686,15 +23851,24 @@
         <v>2209</v>
       </c>
       <c r="M307" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N307" s="8" t="s">
         <v>2209</v>
       </c>
-      <c r="N307" s="8" t="s">
+      <c r="O307" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="P307" s="8" t="s">
+        <v>2209</v>
+      </c>
+      <c r="Q307" s="8" t="s">
         <v>2496</v>
       </c>
-      <c r="O307" s="8" t="s">
+      <c r="R307" s="8" t="s">
         <v>2133</v>
       </c>
-      <c r="P307" s="8" t="s">
+      <c r="S307" s="8" t="s">
         <v>2496</v>
       </c>
     </row>
